--- a/data/monthly_ranking.xlsx
+++ b/data/monthly_ranking.xlsx
@@ -788,10 +788,10 @@
         <v>22.34193548387097</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>45657</v>
+        <v>44651</v>
       </c>
       <c r="S4" t="n">
-        <v>80.58099718381978</v>
+        <v>78.71038842138071</v>
       </c>
       <c r="T4" s="2" t="n">
         <v>44804</v>
@@ -847,7 +847,7 @@
         <v>209.4</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>44439</v>
+        <v>45535</v>
       </c>
       <c r="K5" t="n">
         <v>18.7</v>
@@ -871,10 +871,10 @@
         <v>22.15806451612903</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>44651</v>
+        <v>44530</v>
       </c>
       <c r="S5" t="n">
-        <v>78.71038842138071</v>
+        <v>78.56666666666666</v>
       </c>
       <c r="T5" s="2" t="n">
         <v>45169</v>
@@ -892,7 +892,7 @@
         <v>45657</v>
       </c>
       <c r="Y5" t="n">
-        <v>1022.951523297491</v>
+        <v>1024.29538083281</v>
       </c>
       <c r="Z5" s="2" t="n">
         <v>42735</v>
@@ -930,7 +930,7 @@
         <v>202.2</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45535</v>
+        <v>44439</v>
       </c>
       <c r="K6" t="n">
         <v>18.7</v>
@@ -954,10 +954,10 @@
         <v>21.77741935483871</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="S6" t="n">
-        <v>78.56666666666666</v>
+        <v>77.92585125448028</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>44469</v>
@@ -1037,10 +1037,10 @@
         <v>21.61290322580645</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>44561</v>
+        <v>45322</v>
       </c>
       <c r="S7" t="n">
-        <v>77.92585125448028</v>
+        <v>77.3096849387172</v>
       </c>
       <c r="T7" s="2" t="n">
         <v>44439</v>
@@ -1090,7 +1090,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45535</v>
+        <v>44530</v>
       </c>
       <c r="I8" t="n">
         <v>160</v>
@@ -1120,10 +1120,10 @@
         <v>21.11290322580645</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="S8" t="n">
-        <v>77.3096849387172</v>
+        <v>77.29858059566158</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>44773</v>
@@ -1161,10 +1161,10 @@
         <v>37.1</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45046</v>
+        <v>45657</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7</v>
+        <v>57.9</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>44469</v>
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>44530</v>
+        <v>45535</v>
       </c>
       <c r="I9" t="n">
         <v>160</v>
@@ -1327,10 +1327,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45322</v>
+        <v>45046</v>
       </c>
       <c r="E11" t="n">
-        <v>53.1</v>
+        <v>54.7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45596</v>
@@ -1410,10 +1410,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="E12" t="n">
-        <v>51.5</v>
+        <v>53.1</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>45626</v>
@@ -1422,13 +1422,13 @@
         <v>7.4</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45565</v>
+        <v>44500</v>
       </c>
       <c r="I12" t="n">
         <v>128</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="K12" t="n">
         <v>15.2</v>
@@ -1493,10 +1493,10 @@
         <v>35.9</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="E13" t="n">
-        <v>49.9</v>
+        <v>51.5</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44530</v>
@@ -1505,13 +1505,13 @@
         <v>7.2</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>44500</v>
+        <v>45565</v>
       </c>
       <c r="I13" t="n">
         <v>128</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="K13" t="n">
         <v>15.2</v>
@@ -1576,10 +1576,10 @@
         <v>35.5</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45230</v>
+        <v>45382</v>
       </c>
       <c r="E14" t="n">
-        <v>48.3</v>
+        <v>49.9</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44347</v>
@@ -1742,10 +1742,10 @@
         <v>35.2</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>45230</v>
       </c>
       <c r="E16" t="n">
-        <v>46.7</v>
+        <v>48.3</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44895</v>
@@ -1837,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>44469</v>
+        <v>45657</v>
       </c>
       <c r="I17" t="n">
-        <v>74.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>44834</v>
@@ -1920,10 +1920,10 @@
         <v>3.8</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>44834</v>
+        <v>44469</v>
       </c>
       <c r="I18" t="n">
-        <v>62.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>44865</v>
@@ -1991,10 +1991,10 @@
         <v>33.4</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44408</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
-        <v>45.1</v>
+        <v>46.7</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>45382</v>
@@ -2003,10 +2003,10 @@
         <v>3.2</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45077</v>
+        <v>44834</v>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>62.2</v>
       </c>
       <c r="J19" s="2" t="n">
         <v>44712</v>
@@ -2074,10 +2074,10 @@
         <v>32.9</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="E20" t="n">
-        <v>43.5</v>
+        <v>45.1</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>45412</v>
@@ -2086,10 +2086,10 @@
         <v>3.2</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45382</v>
+        <v>45077</v>
       </c>
       <c r="I20" t="n">
-        <v>59.4</v>
+        <v>60</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>45596</v>
@@ -2157,7 +2157,7 @@
         <v>32.8</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="E21" t="n">
         <v>43.5</v>
@@ -2169,10 +2169,10 @@
         <v>3.2</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="I21" t="n">
-        <v>58.8</v>
+        <v>59.4</v>
       </c>
       <c r="J21" s="2" t="n">
         <v>44500</v>
@@ -2246,16 +2246,16 @@
         <v>43.5</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="G22" t="n">
         <v>2.6</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>44742</v>
+        <v>45443</v>
       </c>
       <c r="I22" t="n">
-        <v>54</v>
+        <v>58.8</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>45077</v>
@@ -2323,22 +2323,22 @@
         <v>31.3</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45596</v>
+        <v>45504</v>
       </c>
       <c r="E23" t="n">
         <v>43.5</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44651</v>
+        <v>45322</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>44985</v>
+        <v>44742</v>
       </c>
       <c r="I23" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>45230</v>
@@ -2406,22 +2406,22 @@
         <v>31.1</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="E24" t="n">
         <v>43.5</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="G24" t="n">
         <v>2.4</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="I24" t="n">
-        <v>46.6</v>
+        <v>49</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>44347</v>
@@ -2489,22 +2489,22 @@
         <v>29.8</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45351</v>
+        <v>44347</v>
       </c>
       <c r="E25" t="n">
         <v>43.5</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="G25" t="n">
         <v>2.4</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45322</v>
+        <v>44957</v>
       </c>
       <c r="I25" t="n">
-        <v>45</v>
+        <v>46.6</v>
       </c>
       <c r="J25" s="2" t="n">
         <v>45443</v>
@@ -2572,22 +2572,22 @@
         <v>28.9</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45016</v>
+        <v>45351</v>
       </c>
       <c r="E26" t="n">
-        <v>41.8</v>
+        <v>43.5</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45077</v>
+        <v>44651</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45412</v>
+        <v>45322</v>
       </c>
       <c r="I26" t="n">
-        <v>43.4</v>
+        <v>45</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>45626</v>
@@ -2661,22 +2661,22 @@
         <v>41.8</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44957</v>
+        <v>45077</v>
       </c>
       <c r="G27" t="n">
         <v>2.2</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>44408</v>
+        <v>45412</v>
       </c>
       <c r="I27" t="n">
-        <v>43</v>
+        <v>43.4</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>45657</v>
+        <v>45260</v>
       </c>
       <c r="K27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L27" s="2" t="n">
         <v>45046</v>
@@ -2738,10 +2738,10 @@
         <v>28.1</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="E28" t="n">
-        <v>40.2</v>
+        <v>41.8</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>45504</v>
@@ -2750,16 +2750,16 @@
         <v>2.2</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>44651</v>
+        <v>44408</v>
       </c>
       <c r="I28" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>45260</v>
+        <v>44926</v>
       </c>
       <c r="K28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>45626</v>
@@ -2821,25 +2821,25 @@
         <v>27.7</v>
       </c>
       <c r="D29" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="E29" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H29" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="E29" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>45046</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>45504</v>
-      </c>
       <c r="I29" t="n">
-        <v>37.4</v>
+        <v>42.8</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44926</v>
+        <v>44530</v>
       </c>
       <c r="K29" t="n">
         <v>7.1</v>
@@ -2904,28 +2904,28 @@
         <v>27</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44500</v>
+        <v>44316</v>
       </c>
       <c r="E30" t="n">
         <v>38.6</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44742</v>
+        <v>45046</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45260</v>
+        <v>45504</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>37.4</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44530</v>
+        <v>45046</v>
       </c>
       <c r="K30" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>45260</v>
@@ -2952,10 +2952,10 @@
         <v>68.96695615751</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>45657</v>
+        <v>45046</v>
       </c>
       <c r="U30" t="n">
-        <v>10.93633512544803</v>
+        <v>10.10569968234658</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>45412</v>
@@ -2993,19 +2993,19 @@
         <v>38.6</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>44561</v>
+        <v>45260</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>45046</v>
+        <v>44895</v>
       </c>
       <c r="K31" t="n">
         <v>6.9</v>
@@ -3035,10 +3035,10 @@
         <v>68.04189068100359</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>45046</v>
+        <v>44530</v>
       </c>
       <c r="U31" t="n">
-        <v>10.10569968234658</v>
+        <v>9.930859126984128</v>
       </c>
       <c r="V31" s="2" t="n">
         <v>44834</v>
@@ -3070,7 +3070,7 @@
         <v>25.8</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44316</v>
+        <v>44500</v>
       </c>
       <c r="E32" t="n">
         <v>38.6</v>
@@ -3082,16 +3082,16 @@
         <v>1.6</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45046</v>
+        <v>44561</v>
       </c>
       <c r="I32" t="n">
-        <v>31</v>
+        <v>36.4</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44895</v>
+        <v>45412</v>
       </c>
       <c r="K32" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>44316</v>
@@ -3118,10 +3118,10 @@
         <v>67.98207885304659</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>44530</v>
+        <v>45412</v>
       </c>
       <c r="U32" t="n">
-        <v>9.930859126984128</v>
+        <v>9.635016675421605</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>44620</v>
@@ -3136,7 +3136,7 @@
         <v>1015.839112903226</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="AA32" t="n">
         <v>60.5</v>
@@ -3153,10 +3153,10 @@
         <v>25.8</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44985</v>
+        <v>44651</v>
       </c>
       <c r="E33" t="n">
-        <v>37</v>
+        <v>38.6</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>45443</v>
@@ -3165,16 +3165,16 @@
         <v>1.6</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>44286</v>
+        <v>45046</v>
       </c>
       <c r="I33" t="n">
-        <v>27.2</v>
+        <v>31</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>45016</v>
@@ -3189,10 +3189,10 @@
         <v>20.24666666666667</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>45657</v>
+        <v>44926</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.25714285714286</v>
+        <v>10.21935483870968</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>45535</v>
@@ -3201,10 +3201,10 @@
         <v>67.95430107526882</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>45412</v>
+        <v>44651</v>
       </c>
       <c r="U33" t="n">
-        <v>9.635016675421605</v>
+        <v>9.365172588436964</v>
       </c>
       <c r="V33" s="2" t="n">
         <v>45077</v>
@@ -3219,7 +3219,7 @@
         <v>1015.774081541219</v>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="AA33" t="n">
         <v>60.5</v>
@@ -3236,28 +3236,28 @@
         <v>25.4</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44804</v>
+        <v>44985</v>
       </c>
       <c r="E34" t="n">
         <v>37</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="I34" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="K34" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L34" s="2" t="n">
         <v>45382</v>
@@ -3266,16 +3266,16 @@
         <v>14.49981104877669</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>45657</v>
+        <v>45382</v>
       </c>
       <c r="O34" t="n">
-        <v>19.81428571428571</v>
+        <v>19.43225806451613</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>44926</v>
+        <v>44651</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.21935483870968</v>
+        <v>10.02258064516129</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>45107</v>
@@ -3284,10 +3284,10 @@
         <v>67.83657407407408</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>44651</v>
+        <v>44316</v>
       </c>
       <c r="U34" t="n">
-        <v>9.365172588436964</v>
+        <v>9.172221794871795</v>
       </c>
       <c r="V34" s="2" t="n">
         <v>45596</v>
@@ -3319,46 +3319,46 @@
         <v>25.3</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44592</v>
+        <v>44804</v>
       </c>
       <c r="E35" t="n">
         <v>37</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44439</v>
+        <v>45016</v>
       </c>
       <c r="G35" t="n">
         <v>1.4</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45351</v>
+        <v>44377</v>
       </c>
       <c r="I35" t="n">
-        <v>21.8</v>
+        <v>26.2</v>
       </c>
       <c r="J35" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="M35" t="n">
+        <v>14.07741935483871</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="O35" t="n">
+        <v>19.31290322580645</v>
+      </c>
+      <c r="P35" s="2" t="n">
         <v>45382</v>
       </c>
-      <c r="K35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>45657</v>
-      </c>
-      <c r="M35" t="n">
-        <v>14.38569828469022</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="O35" t="n">
-        <v>19.43225806451613</v>
-      </c>
-      <c r="P35" s="2" t="n">
-        <v>44651</v>
-      </c>
       <c r="Q35" t="n">
-        <v>10.02258064516129</v>
+        <v>9.909677419354839</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>45046</v>
@@ -3367,10 +3367,10 @@
         <v>67.4375</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>44316</v>
+        <v>45382</v>
       </c>
       <c r="U35" t="n">
-        <v>9.172221794871795</v>
+        <v>9.152194366526414</v>
       </c>
       <c r="V35" s="2" t="n">
         <v>44985</v>
@@ -3402,46 +3402,46 @@
         <v>24.3</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45107</v>
+        <v>44592</v>
       </c>
       <c r="E36" t="n">
-        <v>35.4</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44681</v>
+        <v>44439</v>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>44255</v>
+        <v>45351</v>
       </c>
       <c r="I36" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>44286</v>
+        <v>45291</v>
       </c>
       <c r="K36" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>44926</v>
+        <v>44530</v>
       </c>
       <c r="M36" t="n">
-        <v>14.07741935483871</v>
+        <v>13.79548611111111</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>44926</v>
+        <v>45351</v>
       </c>
       <c r="O36" t="n">
-        <v>19.31290322580645</v>
+        <v>18.27241379310345</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>45382</v>
+        <v>44316</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.909677419354839</v>
+        <v>9.863333333333333</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>45473</v>
@@ -3450,10 +3450,10 @@
         <v>67.40254629629629</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>45382</v>
+        <v>45016</v>
       </c>
       <c r="U36" t="n">
-        <v>9.152194366526414</v>
+        <v>8.990887486364343</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>45535</v>
@@ -3485,22 +3485,22 @@
         <v>24.3</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44773</v>
+        <v>45107</v>
       </c>
       <c r="E37" t="n">
         <v>35.4</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45260</v>
+        <v>44681</v>
       </c>
       <c r="G37" t="n">
         <v>1.2</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>44926</v>
+        <v>44255</v>
       </c>
       <c r="I37" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="J37" s="2" t="n">
         <v>44255</v>
@@ -3509,22 +3509,22 @@
         <v>4.8</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>44530</v>
+        <v>45351</v>
       </c>
       <c r="M37" t="n">
-        <v>13.79548611111111</v>
+        <v>13.2003591954023</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="O37" t="n">
-        <v>18.27241379310345</v>
+        <v>18.24193548387097</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>44316</v>
+        <v>45016</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.863333333333333</v>
+        <v>9.280645161290321</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>45412</v>
@@ -3533,10 +3533,10 @@
         <v>67.28811026936027</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>45016</v>
+        <v>44561</v>
       </c>
       <c r="U37" t="n">
-        <v>8.990887486364343</v>
+        <v>8.677598566308243</v>
       </c>
       <c r="V37" s="2" t="n">
         <v>45260</v>
@@ -3568,46 +3568,46 @@
         <v>24.3</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44620</v>
+        <v>44773</v>
       </c>
       <c r="E38" t="n">
         <v>35.4</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44561</v>
+        <v>45260</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="I38" t="n">
-        <v>19.8</v>
+        <v>21</v>
       </c>
       <c r="J38" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L38" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="K38" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>45351</v>
-      </c>
       <c r="M38" t="n">
-        <v>13.2003591954023</v>
+        <v>13.14372759856631</v>
       </c>
       <c r="N38" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="O38" t="n">
+        <v>18.2258064516129</v>
+      </c>
+      <c r="P38" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="O38" t="n">
-        <v>18.24193548387097</v>
-      </c>
-      <c r="P38" s="2" t="n">
-        <v>45016</v>
-      </c>
       <c r="Q38" t="n">
-        <v>9.280645161290321</v>
+        <v>8.932258064516128</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>45077</v>
@@ -3616,10 +3616,10 @@
         <v>66.55062724014337</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>44561</v>
+        <v>45291</v>
       </c>
       <c r="U38" t="n">
-        <v>8.677598566308243</v>
+        <v>8.611393495380886</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>44500</v>
@@ -3651,10 +3651,10 @@
         <v>23.6</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44377</v>
+        <v>44620</v>
       </c>
       <c r="E39" t="n">
-        <v>33.8</v>
+        <v>35.4</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>45291</v>
@@ -3663,34 +3663,34 @@
         <v>0.8</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>44439</v>
+        <v>45016</v>
       </c>
       <c r="I39" t="n">
-        <v>14.6</v>
+        <v>19.8</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="K39" t="n">
         <v>4.7</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>45291</v>
+        <v>44651</v>
       </c>
       <c r="M39" t="n">
-        <v>13.14372759856631</v>
+        <v>13.13922101449275</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>44286</v>
+        <v>45322</v>
       </c>
       <c r="O39" t="n">
-        <v>18.2258064516129</v>
+        <v>18.00322580645161</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>45291</v>
+        <v>45351</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.932258064516128</v>
+        <v>8.755172413793103</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>45169</v>
@@ -3699,10 +3699,10 @@
         <v>66.48135198135198</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>45291</v>
+        <v>44681</v>
       </c>
       <c r="U39" t="n">
-        <v>8.611393495380886</v>
+        <v>8.605863000550388</v>
       </c>
       <c r="V39" s="2" t="n">
         <v>45322</v>
@@ -3734,46 +3734,46 @@
         <v>22.6</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45138</v>
+        <v>44377</v>
       </c>
       <c r="E40" t="n">
         <v>33.8</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44408</v>
+        <v>44561</v>
       </c>
       <c r="G40" t="n">
         <v>0.8</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>44681</v>
+        <v>44439</v>
       </c>
       <c r="I40" t="n">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="J40" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>12.91453755649057</v>
+      </c>
+      <c r="N40" s="2" t="n">
         <v>44620</v>
       </c>
-      <c r="K40" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>44651</v>
-      </c>
-      <c r="M40" t="n">
-        <v>13.13922101449275</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>45322</v>
-      </c>
       <c r="O40" t="n">
-        <v>18.00322580645161</v>
+        <v>17.80714285714286</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>45351</v>
+        <v>44561</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.755172413793103</v>
+        <v>8.735483870967743</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>44377</v>
@@ -3782,10 +3782,10 @@
         <v>66.39768518518518</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>44681</v>
+        <v>45322</v>
       </c>
       <c r="U40" t="n">
-        <v>8.605863000550388</v>
+        <v>8.525690214803117</v>
       </c>
       <c r="V40" s="2" t="n">
         <v>45291</v>
@@ -3817,22 +3817,22 @@
         <v>22.5</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44834</v>
+        <v>45138</v>
       </c>
       <c r="E41" t="n">
         <v>33.8</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44316</v>
+        <v>44865</v>
       </c>
       <c r="G41" t="n">
         <v>0.8</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>44592</v>
+        <v>44681</v>
       </c>
       <c r="I41" t="n">
-        <v>11.2</v>
+        <v>13.2</v>
       </c>
       <c r="J41" s="2" t="n">
         <v>45322</v>
@@ -3841,22 +3841,22 @@
         <v>4.1</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>44286</v>
+        <v>44561</v>
       </c>
       <c r="M41" t="n">
-        <v>12.91453755649057</v>
+        <v>12.69417562724014</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>44620</v>
+        <v>44255</v>
       </c>
       <c r="O41" t="n">
-        <v>17.80714285714286</v>
+        <v>17.6</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>44561</v>
+        <v>45322</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.735483870967743</v>
+        <v>8.480645161290322</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>44681</v>
@@ -3865,16 +3865,16 @@
         <v>66.22800925925927</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="U41" t="n">
-        <v>8.525690214803117</v>
+        <v>8.384841954022988</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>44592</v>
+        <v>45657</v>
       </c>
       <c r="W41" t="n">
-        <v>2.26875</v>
+        <v>2.326006137964707</v>
       </c>
       <c r="X41" s="2" t="n">
         <v>45107</v>
@@ -3900,22 +3900,22 @@
         <v>22.3</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45626</v>
+        <v>44834</v>
       </c>
       <c r="E42" t="n">
         <v>33.8</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44865</v>
+        <v>44408</v>
       </c>
       <c r="G42" t="n">
         <v>0.8</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>44316</v>
+        <v>44592</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>11.2</v>
       </c>
       <c r="J42" s="2" t="n">
         <v>44681</v>
@@ -3924,22 +3924,22 @@
         <v>4</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>44561</v>
+        <v>44255</v>
       </c>
       <c r="M42" t="n">
-        <v>12.69417562724014</v>
+        <v>12.62649637681159</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>44255</v>
+        <v>44530</v>
       </c>
       <c r="O42" t="n">
-        <v>17.6</v>
+        <v>17.25666666666667</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>45322</v>
+        <v>44286</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.480645161290322</v>
+        <v>8.216129032258063</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>44439</v>
@@ -3948,16 +3948,16 @@
         <v>64.93548387096774</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>45351</v>
+        <v>44255</v>
       </c>
       <c r="U42" t="n">
-        <v>8.384841954022988</v>
+        <v>8.125084541062801</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>45565</v>
+        <v>44592</v>
       </c>
       <c r="W42" t="n">
-        <v>2.126157407407407</v>
+        <v>2.26875</v>
       </c>
       <c r="X42" s="2" t="n">
         <v>45443</v>
@@ -3983,22 +3983,22 @@
         <v>22.3</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45077</v>
+        <v>45626</v>
       </c>
       <c r="E43" t="n">
-        <v>32.2</v>
+        <v>33.8</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="G43" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45291</v>
+        <v>44316</v>
       </c>
       <c r="I43" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="J43" s="2" t="n">
         <v>44561</v>
@@ -4007,22 +4007,22 @@
         <v>3.9</v>
       </c>
       <c r="L43" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>12.60752813494749</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="O43" t="n">
+        <v>17.25555555555556</v>
+      </c>
+      <c r="P43" s="2" t="n">
         <v>44255</v>
       </c>
-      <c r="M43" t="n">
-        <v>12.62649637681159</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>44530</v>
-      </c>
-      <c r="O43" t="n">
-        <v>17.25666666666667</v>
-      </c>
-      <c r="P43" s="2" t="n">
-        <v>44286</v>
-      </c>
       <c r="Q43" t="n">
-        <v>8.216129032258063</v>
+        <v>8.078260869565218</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>44742</v>
@@ -4031,16 +4031,16 @@
         <v>63.5099537037037</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>44255</v>
+        <v>45657</v>
       </c>
       <c r="U43" t="n">
-        <v>8.125084541062801</v>
+        <v>8.093512851363604</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>44926</v>
+        <v>45565</v>
       </c>
       <c r="W43" t="n">
-        <v>2.090008960573476</v>
+        <v>2.126157407407407</v>
       </c>
       <c r="X43" s="2" t="n">
         <v>45535</v>
@@ -4072,16 +4072,16 @@
         <v>32.2</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44592</v>
+        <v>44255</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>44865</v>
+        <v>45291</v>
       </c>
       <c r="I44" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J44" s="2" t="n">
         <v>44316</v>
@@ -4090,10 +4090,10 @@
         <v>3.2</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="M44" t="n">
-        <v>12.60752813494749</v>
+        <v>12.16423632907861</v>
       </c>
       <c r="N44" s="2" t="n">
         <v>44561</v>
@@ -4102,10 +4102,10 @@
         <v>17.13870967741935</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>44255</v>
+        <v>45657</v>
       </c>
       <c r="Q44" t="n">
-        <v>8.078260869565218</v>
+        <v>7.892592592592592</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>45504</v>
@@ -4120,10 +4120,10 @@
         <v>7.223220546984573</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>44865</v>
+        <v>44926</v>
       </c>
       <c r="W44" t="n">
-        <v>2.033736559139785</v>
+        <v>2.090008960573476</v>
       </c>
       <c r="X44" s="2" t="n">
         <v>44804</v>
@@ -4155,16 +4155,16 @@
         <v>32.2</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45657</v>
+        <v>44592</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45657</v>
+        <v>44865</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="J45" s="2" t="n">
         <v>44592</v>
@@ -4203,10 +4203,10 @@
         <v>6.689550088652482</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>45230</v>
+        <v>44865</v>
       </c>
       <c r="W45" t="n">
-        <v>1.842114695340502</v>
+        <v>2.033736559139785</v>
       </c>
       <c r="X45" s="2" t="n">
         <v>44530</v>
@@ -4232,10 +4232,10 @@
         <v>21.7</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44742</v>
+        <v>45077</v>
       </c>
       <c r="E46" t="n">
-        <v>30.6</v>
+        <v>32.2</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>44620</v>
@@ -4286,10 +4286,10 @@
         <v>6.217835039059882</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>45626</v>
+        <v>45230</v>
       </c>
       <c r="W46" t="n">
-        <v>1.644375</v>
+        <v>1.842114695340502</v>
       </c>
       <c r="X46" s="2" t="n">
         <v>44834</v>
@@ -4315,19 +4315,19 @@
         <v>20.6</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44865</v>
+        <v>44742</v>
       </c>
       <c r="E47" t="n">
-        <v>29</v>
+        <v>30.6</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45138</v>
+        <v>44773</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45138</v>
+        <v>44773</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4369,10 +4369,10 @@
         <v>5.810762911354141</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>45199</v>
+        <v>45626</v>
       </c>
       <c r="W47" t="n">
-        <v>1.628263888888889</v>
+        <v>1.644375</v>
       </c>
       <c r="X47" s="2" t="n">
         <v>44681</v>
@@ -4398,19 +4398,19 @@
         <v>19.9</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45657</v>
+        <v>44865</v>
       </c>
       <c r="E48" t="n">
-        <v>27.4</v>
+        <v>29</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44773</v>
+        <v>45138</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>44773</v>
+        <v>45138</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4452,10 +4452,10 @@
         <v>5.561420493911496</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>45657</v>
+        <v>45199</v>
       </c>
       <c r="W48" t="n">
-        <v>1.253843445980543</v>
+        <v>1.628263888888889</v>
       </c>
       <c r="X48" s="2" t="n">
         <v>45382</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" s="2" t="n">
-        <v>44834</v>
+        <v>43921</v>
       </c>
       <c r="AA60" t="n">
         <v>36</v>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" s="2" t="n">
-        <v>43921</v>
+        <v>44834</v>
       </c>
       <c r="AA61" t="n">
         <v>36</v>
@@ -6352,10 +6352,10 @@
       </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" s="2" t="n">
-        <v>45535</v>
+        <v>45657</v>
       </c>
       <c r="AA80" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -6411,10 +6411,10 @@
       </c>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" s="2" t="n">
-        <v>45077</v>
+        <v>45535</v>
       </c>
       <c r="AA81" t="n">
-        <v>20.6</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="82">
@@ -6470,10 +6470,10 @@
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" s="2" t="n">
-        <v>44561</v>
+        <v>45077</v>
       </c>
       <c r="AA82" t="n">
-        <v>19.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="83">
@@ -6529,10 +6529,10 @@
       </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" s="2" t="n">
-        <v>43982</v>
+        <v>44561</v>
       </c>
       <c r="AA83" t="n">
-        <v>19</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="84">
@@ -6588,10 +6588,10 @@
       </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" s="2" t="n">
-        <v>43131</v>
+        <v>43982</v>
       </c>
       <c r="AA84" t="n">
-        <v>17.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -6647,10 +6647,10 @@
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" s="2" t="n">
-        <v>44074</v>
+        <v>43131</v>
       </c>
       <c r="AA85" t="n">
-        <v>17</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="86">
@@ -6706,10 +6706,10 @@
       </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" s="2" t="n">
-        <v>44316</v>
+        <v>44074</v>
       </c>
       <c r="AA86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -6824,10 +6824,10 @@
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" s="2" t="n">
-        <v>43069</v>
+        <v>44316</v>
       </c>
       <c r="AA88" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -6942,10 +6942,10 @@
       </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" s="2" t="n">
-        <v>44377</v>
+        <v>43069</v>
       </c>
       <c r="AA90" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="91">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" s="2" t="n">
-        <v>45260</v>
+        <v>44377</v>
       </c>
       <c r="AA91" t="n">
         <v>14.6</v>
@@ -7060,10 +7060,10 @@
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" s="2" t="n">
-        <v>44043</v>
+        <v>45260</v>
       </c>
       <c r="AA92" t="n">
-        <v>13</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="93">
@@ -7119,10 +7119,10 @@
       </c>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" s="2" t="n">
-        <v>43555</v>
+        <v>44043</v>
       </c>
       <c r="AA93" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -7237,10 +7237,10 @@
       </c>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" s="2" t="n">
-        <v>41882</v>
+        <v>43555</v>
       </c>
       <c r="AA95" t="n">
-        <v>12</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="96">
@@ -7296,10 +7296,10 @@
       </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" s="2" t="n">
-        <v>43585</v>
+        <v>41882</v>
       </c>
       <c r="AA96" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -7355,10 +7355,10 @@
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" s="2" t="n">
-        <v>43708</v>
+        <v>43585</v>
       </c>
       <c r="AA97" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="98">
@@ -7414,10 +7414,10 @@
       </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" s="2" t="n">
-        <v>44439</v>
+        <v>43708</v>
       </c>
       <c r="AA98" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="99">
@@ -7473,10 +7473,10 @@
       </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" s="2" t="n">
-        <v>44592</v>
+        <v>44439</v>
       </c>
       <c r="AA99" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="100">
@@ -7532,10 +7532,10 @@
       </c>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" s="2" t="n">
-        <v>42429</v>
+        <v>44592</v>
       </c>
       <c r="AA100" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="101">
@@ -7591,10 +7591,10 @@
       </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" s="2" t="n">
-        <v>45443</v>
+        <v>42429</v>
       </c>
       <c r="AA101" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -7650,10 +7650,10 @@
       </c>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" s="2" t="n">
-        <v>42155</v>
+        <v>45443</v>
       </c>
       <c r="AA102" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="103">
@@ -7709,10 +7709,10 @@
       </c>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" s="2" t="n">
-        <v>42886</v>
+        <v>42155</v>
       </c>
       <c r="AA103" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -7768,10 +7768,10 @@
       </c>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" s="2" t="n">
-        <v>43524</v>
+        <v>42886</v>
       </c>
       <c r="AA104" t="n">
-        <v>7.300000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="105">
@@ -7827,10 +7827,10 @@
       </c>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" s="2" t="n">
-        <v>44742</v>
+        <v>43524</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.8</v>
+        <v>7.300000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7886,10 +7886,10 @@
       </c>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" s="2" t="n">
-        <v>44865</v>
+        <v>44742</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="107">
@@ -7945,10 +7945,10 @@
       </c>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" s="2" t="n">
-        <v>44255</v>
+        <v>44865</v>
       </c>
       <c r="AA107" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="108">
@@ -8004,10 +8004,10 @@
       </c>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" s="2" t="n">
-        <v>41729</v>
+        <v>44255</v>
       </c>
       <c r="AA108" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="109">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" s="2" t="n">
-        <v>42460</v>
+        <v>41729</v>
       </c>
       <c r="AA110" t="n">
         <v>6</v>
@@ -8181,10 +8181,10 @@
       </c>
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" s="2" t="n">
-        <v>45107</v>
+        <v>42460</v>
       </c>
       <c r="AA111" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
@@ -8240,10 +8240,10 @@
       </c>
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" s="2" t="n">
-        <v>42978</v>
+        <v>45107</v>
       </c>
       <c r="AA112" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="113">
@@ -8299,10 +8299,10 @@
       </c>
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" s="2" t="n">
-        <v>45016</v>
+        <v>42978</v>
       </c>
       <c r="AA113" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -8358,10 +8358,10 @@
       </c>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" s="2" t="n">
-        <v>45291</v>
+        <v>45016</v>
       </c>
       <c r="AA114" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="115">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" s="2" t="n">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="AA115" t="n">
         <v>4.6</v>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" s="2" t="n">
-        <v>45138</v>
+        <v>42613</v>
       </c>
       <c r="AA123" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" s="2" t="n">
-        <v>41912</v>
+        <v>42369</v>
       </c>
       <c r="AA124" t="n">
         <v>0</v>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" s="2" t="n">
-        <v>42369</v>
+        <v>43312</v>
       </c>
       <c r="AA126" t="n">
         <v>0</v>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" s="2" t="n">
-        <v>42613</v>
+        <v>41912</v>
       </c>
       <c r="AA127" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" s="2" t="n">
-        <v>42551</v>
+        <v>45138</v>
       </c>
       <c r="AA128" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="AA129" t="n">
         <v>0</v>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" s="2" t="n">
-        <v>43312</v>
+        <v>43646</v>
       </c>
       <c r="AA130" t="n">
         <v>0</v>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" s="2" t="n">
-        <v>43646</v>
+        <v>43890</v>
       </c>
       <c r="AA131" t="n">
         <v>0</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" s="2" t="n">
-        <v>43890</v>
+        <v>42582</v>
       </c>
       <c r="AA132" t="n">
         <v>0</v>

--- a/data/monthly_ranking.xlsx
+++ b/data/monthly_ranking.xlsx
@@ -723,10 +723,10 @@
         <v>5.076277855695809</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>44985</v>
+        <v>45657</v>
       </c>
       <c r="Y3" t="n">
-        <v>1025.002083333333</v>
+        <v>1025.064040322581</v>
       </c>
       <c r="Z3" s="2" t="n">
         <v>44985</v>
@@ -806,10 +806,10 @@
         <v>4.496990740740741</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>44620</v>
+        <v>44985</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.947425491175</v>
+        <v>1025.002083333333</v>
       </c>
       <c r="Z4" s="2" t="n">
         <v>45199</v>
@@ -889,10 +889,10 @@
         <v>4.085439068100358</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>45657</v>
+        <v>44620</v>
       </c>
       <c r="Y5" t="n">
-        <v>1024.29538083281</v>
+        <v>1024.947425491175</v>
       </c>
       <c r="Z5" s="2" t="n">
         <v>42735</v>
@@ -1037,10 +1037,10 @@
         <v>21.61290322580645</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="S7" t="n">
-        <v>77.3096849387172</v>
+        <v>77.72058243727598</v>
       </c>
       <c r="T7" s="2" t="n">
         <v>44439</v>
@@ -1120,10 +1120,10 @@
         <v>21.11290322580645</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>45657</v>
+        <v>45322</v>
       </c>
       <c r="S8" t="n">
-        <v>77.29858059566158</v>
+        <v>77.3096849387172</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>44773</v>
@@ -3871,10 +3871,10 @@
         <v>8.384841954022988</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>45657</v>
+        <v>44592</v>
       </c>
       <c r="W41" t="n">
-        <v>2.326006137964707</v>
+        <v>2.26875</v>
       </c>
       <c r="X41" s="2" t="n">
         <v>45107</v>
@@ -3930,10 +3930,10 @@
         <v>12.62649637681159</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>44530</v>
+        <v>45657</v>
       </c>
       <c r="O42" t="n">
-        <v>17.25666666666667</v>
+        <v>17.37096774193548</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>44286</v>
@@ -3954,10 +3954,10 @@
         <v>8.125084541062801</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>44592</v>
+        <v>45657</v>
       </c>
       <c r="W42" t="n">
-        <v>2.26875</v>
+        <v>2.24152688172043</v>
       </c>
       <c r="X42" s="2" t="n">
         <v>45443</v>
@@ -4013,10 +4013,10 @@
         <v>12.60752813494749</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>45657</v>
+        <v>44530</v>
       </c>
       <c r="O43" t="n">
-        <v>17.25555555555556</v>
+        <v>17.25666666666667</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>44255</v>
@@ -4034,7 +4034,7 @@
         <v>45657</v>
       </c>
       <c r="U43" t="n">
-        <v>8.093512851363604</v>
+        <v>8.016087813620072</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>45565</v>
@@ -4093,7 +4093,7 @@
         <v>45657</v>
       </c>
       <c r="M44" t="n">
-        <v>12.16423632907861</v>
+        <v>12.00064964157706</v>
       </c>
       <c r="N44" s="2" t="n">
         <v>44561</v>
@@ -4105,7 +4105,7 @@
         <v>45657</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.892592592592592</v>
+        <v>7.674193548387097</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>45504</v>

--- a/data/monthly_ranking.xlsx
+++ b/data/monthly_ranking.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA133"/>
+  <dimension ref="A1:AA134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +726,7 @@
         <v>45657</v>
       </c>
       <c r="Y3" t="n">
-        <v>1025.064040322581</v>
+        <v>1025.067361111111</v>
       </c>
       <c r="Z3" s="2" t="n">
         <v>44985</v>
@@ -746,7 +746,7 @@
         <v>39.9</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45535</v>
+        <v>44712</v>
       </c>
       <c r="E4" t="n">
         <v>64.40000000000001</v>
@@ -829,7 +829,7 @@
         <v>39.6</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44712</v>
+        <v>45535</v>
       </c>
       <c r="E5" t="n">
         <v>64.40000000000001</v>
@@ -847,7 +847,7 @@
         <v>209.4</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45535</v>
+        <v>44439</v>
       </c>
       <c r="K5" t="n">
         <v>18.7</v>
@@ -912,7 +912,7 @@
         <v>38.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44561</v>
+        <v>45657</v>
       </c>
       <c r="E6" t="n">
         <v>57.9</v>
@@ -930,7 +930,7 @@
         <v>202.2</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>44439</v>
+        <v>45535</v>
       </c>
       <c r="K6" t="n">
         <v>18.7</v>
@@ -995,7 +995,7 @@
         <v>38.1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45260</v>
+        <v>44895</v>
       </c>
       <c r="E7" t="n">
         <v>57.9</v>
@@ -1040,7 +1040,7 @@
         <v>45657</v>
       </c>
       <c r="S7" t="n">
-        <v>77.72058243727598</v>
+        <v>77.72043010752688</v>
       </c>
       <c r="T7" s="2" t="n">
         <v>44439</v>
@@ -1078,7 +1078,7 @@
         <v>37.7</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44895</v>
+        <v>45260</v>
       </c>
       <c r="E8" t="n">
         <v>57.9</v>
@@ -1090,7 +1090,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>44530</v>
+        <v>45535</v>
       </c>
       <c r="I8" t="n">
         <v>160</v>
@@ -1161,7 +1161,7 @@
         <v>37.1</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45657</v>
+        <v>44561</v>
       </c>
       <c r="E9" t="n">
         <v>57.9</v>
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45535</v>
+        <v>44530</v>
       </c>
       <c r="I9" t="n">
         <v>160</v>
@@ -1286,10 +1286,10 @@
         <v>20.45</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>45230</v>
+        <v>45688</v>
       </c>
       <c r="S10" t="n">
-        <v>76.22692652329749</v>
+        <v>76.40575396825398</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>44834</v>
@@ -1369,10 +1369,10 @@
         <v>20.37333333333333</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>45596</v>
+        <v>45230</v>
       </c>
       <c r="S11" t="n">
-        <v>75.9043458781362</v>
+        <v>76.22692652329749</v>
       </c>
       <c r="T11" s="2" t="n">
         <v>45199</v>
@@ -1452,10 +1452,10 @@
         <v>19.92333333333334</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>44500</v>
+        <v>45596</v>
       </c>
       <c r="S12" t="n">
-        <v>75.82773297491039</v>
+        <v>75.9043458781362</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>44408</v>
@@ -1535,10 +1535,10 @@
         <v>19.21666666666667</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>44985</v>
+        <v>44500</v>
       </c>
       <c r="S13" t="n">
-        <v>75.80257936507937</v>
+        <v>75.82773297491039</v>
       </c>
       <c r="T13" s="2" t="n">
         <v>45107</v>
@@ -1553,10 +1553,10 @@
         <v>3.710949074074074</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>44561</v>
+        <v>45688</v>
       </c>
       <c r="Y13" t="n">
-        <v>1019.573633512545</v>
+        <v>1020.062541335979</v>
       </c>
       <c r="Z13" s="2" t="n">
         <v>45322</v>
@@ -1588,7 +1588,7 @@
         <v>6.4</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45473</v>
+        <v>44895</v>
       </c>
       <c r="I14" t="n">
         <v>114</v>
@@ -1618,10 +1618,10 @@
         <v>19.19</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>44865</v>
+        <v>44985</v>
       </c>
       <c r="S14" t="n">
-        <v>75.55398745519715</v>
+        <v>75.80257936507937</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>44742</v>
@@ -1636,10 +1636,10 @@
         <v>3.698197178737086</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>44500</v>
+        <v>44561</v>
       </c>
       <c r="Y14" t="n">
-        <v>1019.554704301075</v>
+        <v>1019.573633512545</v>
       </c>
       <c r="Z14" s="2" t="n">
         <v>45626</v>
@@ -1659,7 +1659,7 @@
         <v>35.3</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44926</v>
+        <v>45230</v>
       </c>
       <c r="E15" t="n">
         <v>48.3</v>
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>44895</v>
+        <v>45473</v>
       </c>
       <c r="I15" t="n">
         <v>114</v>
@@ -1701,10 +1701,10 @@
         <v>18.89</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>44255</v>
+        <v>44865</v>
       </c>
       <c r="S15" t="n">
-        <v>75.43990338164251</v>
+        <v>75.55398745519715</v>
       </c>
       <c r="T15" s="2" t="n">
         <v>44377</v>
@@ -1719,10 +1719,10 @@
         <v>3.656393678160919</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>45351</v>
+        <v>44500</v>
       </c>
       <c r="Y15" t="n">
-        <v>1018.740014367816</v>
+        <v>1019.554704301075</v>
       </c>
       <c r="Z15" s="2" t="n">
         <v>42308</v>
@@ -1742,7 +1742,7 @@
         <v>35.2</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45230</v>
+        <v>44926</v>
       </c>
       <c r="E16" t="n">
         <v>48.3</v>
@@ -1784,10 +1784,10 @@
         <v>18.18333333333333</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>44592</v>
+        <v>44255</v>
       </c>
       <c r="S16" t="n">
-        <v>75.33467741935483</v>
+        <v>75.43990338164251</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>45565</v>
@@ -1802,10 +1802,10 @@
         <v>3.56415770609319</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>44651</v>
+        <v>45351</v>
       </c>
       <c r="Y16" t="n">
-        <v>1018.696591086177</v>
+        <v>1018.740014367816</v>
       </c>
       <c r="Z16" s="2" t="n">
         <v>41973</v>
@@ -1825,7 +1825,7 @@
         <v>34.2</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45412</v>
+        <v>44681</v>
       </c>
       <c r="E17" t="n">
         <v>46.7</v>
@@ -1867,10 +1867,10 @@
         <v>17.82666666666666</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>45291</v>
+        <v>44592</v>
       </c>
       <c r="S17" t="n">
-        <v>75.18077956989247</v>
+        <v>75.33467741935483</v>
       </c>
       <c r="T17" s="2" t="n">
         <v>45230</v>
@@ -1885,10 +1885,10 @@
         <v>3.538440860215053</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>45412</v>
+        <v>44651</v>
       </c>
       <c r="Y17" t="n">
-        <v>1017.888833203833</v>
+        <v>1018.696591086177</v>
       </c>
       <c r="Z17" s="2" t="n">
         <v>45596</v>
@@ -1908,7 +1908,7 @@
         <v>33.5</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44681</v>
+        <v>45412</v>
       </c>
       <c r="E18" t="n">
         <v>46.7</v>
@@ -1950,10 +1950,10 @@
         <v>17.03870967741936</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>44957</v>
+        <v>45291</v>
       </c>
       <c r="S18" t="n">
-        <v>74.64652444139404</v>
+        <v>75.18077956989247</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>44865</v>
@@ -1968,10 +1968,10 @@
         <v>3.499930555555556</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>44895</v>
+        <v>45412</v>
       </c>
       <c r="Y18" t="n">
-        <v>1017.856203703704</v>
+        <v>1017.888833203833</v>
       </c>
       <c r="Z18" s="2" t="n">
         <v>42277</v>
@@ -1997,7 +1997,7 @@
         <v>46.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45382</v>
+        <v>45107</v>
       </c>
       <c r="G19" t="n">
         <v>3.2</v>
@@ -2033,10 +2033,10 @@
         <v>16.68709677419355</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>45351</v>
+        <v>44957</v>
       </c>
       <c r="S19" t="n">
-        <v>73.91068007662835</v>
+        <v>74.64652444139404</v>
       </c>
       <c r="T19" s="2" t="n">
         <v>45473</v>
@@ -2051,10 +2051,10 @@
         <v>3.495760285179991</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>45016</v>
+        <v>44895</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.716712443509</v>
+        <v>1017.856203703704</v>
       </c>
       <c r="Z19" s="2" t="n">
         <v>43008</v>
@@ -2092,7 +2092,7 @@
         <v>60</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>45596</v>
+        <v>44500</v>
       </c>
       <c r="K20" t="n">
         <v>12</v>
@@ -2116,10 +2116,10 @@
         <v>16.35483870967742</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>44469</v>
+        <v>45351</v>
       </c>
       <c r="S20" t="n">
-        <v>73.90393518518519</v>
+        <v>73.91068007662835</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>45596</v>
@@ -2134,10 +2134,10 @@
         <v>3.485573476702509</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>44773</v>
+        <v>45016</v>
       </c>
       <c r="Y20" t="n">
-        <v>1017.692450716846</v>
+        <v>1017.716712443509</v>
       </c>
       <c r="Z20" s="2" t="n">
         <v>43799</v>
@@ -2157,13 +2157,13 @@
         <v>32.8</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45443</v>
+        <v>45351</v>
       </c>
       <c r="E21" t="n">
         <v>43.5</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45107</v>
+        <v>45382</v>
       </c>
       <c r="G21" t="n">
         <v>3.2</v>
@@ -2175,7 +2175,7 @@
         <v>59.4</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>44500</v>
+        <v>45596</v>
       </c>
       <c r="K21" t="n">
         <v>12</v>
@@ -2199,10 +2199,10 @@
         <v>15.2741935483871</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>45260</v>
+        <v>44469</v>
       </c>
       <c r="S21" t="n">
-        <v>73.70972222222221</v>
+        <v>73.90393518518519</v>
       </c>
       <c r="T21" s="2" t="n">
         <v>44500</v>
@@ -2217,10 +2217,10 @@
         <v>3.443413978494624</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>44712</v>
+        <v>44773</v>
       </c>
       <c r="Y21" t="n">
-        <v>1017.519130824373</v>
+        <v>1017.692450716846</v>
       </c>
       <c r="Z21" s="2" t="n">
         <v>43830</v>
@@ -2240,7 +2240,7 @@
         <v>32.2</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45199</v>
+        <v>45443</v>
       </c>
       <c r="E22" t="n">
         <v>43.5</v>
@@ -2282,10 +2282,10 @@
         <v>14.74193548387097</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>45199</v>
+        <v>45260</v>
       </c>
       <c r="S22" t="n">
-        <v>72.9988425925926</v>
+        <v>73.70972222222221</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>45626</v>
@@ -2300,10 +2300,10 @@
         <v>3.405443548387097</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>44469</v>
+        <v>44712</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.502407407407</v>
+        <v>1017.519130824373</v>
       </c>
       <c r="Z22" s="2" t="n">
         <v>42643</v>
@@ -2365,10 +2365,10 @@
         <v>14.36774193548387</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>44620</v>
+        <v>45199</v>
       </c>
       <c r="S23" t="n">
-        <v>71.84029360857819</v>
+        <v>72.9988425925926</v>
       </c>
       <c r="T23" s="2" t="n">
         <v>45443</v>
@@ -2383,10 +2383,10 @@
         <v>3.396990740740741</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>44347</v>
+        <v>44469</v>
       </c>
       <c r="Y23" t="n">
-        <v>1017.295564516129</v>
+        <v>1017.502407407407</v>
       </c>
       <c r="Z23" s="2" t="n">
         <v>43220</v>
@@ -2412,7 +2412,7 @@
         <v>43.5</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="G24" t="n">
         <v>2.4</v>
@@ -2448,10 +2448,10 @@
         <v>13.88064516129032</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>45565</v>
+        <v>44620</v>
       </c>
       <c r="S24" t="n">
-        <v>71.83819444444445</v>
+        <v>71.84029360857819</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>44712</v>
@@ -2466,10 +2466,10 @@
         <v>3.396134259259259</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>45199</v>
+        <v>44347</v>
       </c>
       <c r="Y24" t="n">
-        <v>1017.197453703704</v>
+        <v>1017.295564516129</v>
       </c>
       <c r="Z24" s="2" t="n">
         <v>44227</v>
@@ -2495,7 +2495,7 @@
         <v>43.5</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="G25" t="n">
         <v>2.4</v>
@@ -2531,10 +2531,10 @@
         <v>13.58709677419355</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>45382</v>
+        <v>45565</v>
       </c>
       <c r="S25" t="n">
-        <v>71.60145901511611</v>
+        <v>71.83819444444445</v>
       </c>
       <c r="T25" s="2" t="n">
         <v>44895</v>
@@ -2549,10 +2549,10 @@
         <v>3.386550925925926</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>44377</v>
+        <v>45199</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.00087962963</v>
+        <v>1017.197453703704</v>
       </c>
       <c r="Z25" s="2" t="n">
         <v>43159</v>
@@ -2572,13 +2572,13 @@
         <v>28.9</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45351</v>
+        <v>45199</v>
       </c>
       <c r="E26" t="n">
         <v>43.5</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44651</v>
+        <v>44377</v>
       </c>
       <c r="G26" t="n">
         <v>2.4</v>
@@ -2614,10 +2614,10 @@
         <v>13.13333333333333</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="S26" t="n">
-        <v>71.22454028362162</v>
+        <v>71.60145901511611</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>45077</v>
@@ -2632,10 +2632,10 @@
         <v>3.37696850640399</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>44926</v>
+        <v>44377</v>
       </c>
       <c r="Y26" t="n">
-        <v>1016.608758960573</v>
+        <v>1017.00087962963</v>
       </c>
       <c r="Z26" s="2" t="n">
         <v>44712</v>
@@ -2661,7 +2661,7 @@
         <v>41.8</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45077</v>
+        <v>45504</v>
       </c>
       <c r="G27" t="n">
         <v>2.2</v>
@@ -2697,10 +2697,10 @@
         <v>12.65333333333333</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>44286</v>
+        <v>45016</v>
       </c>
       <c r="S27" t="n">
-        <v>70.59695924887018</v>
+        <v>71.22454028362162</v>
       </c>
       <c r="T27" s="2" t="n">
         <v>44347</v>
@@ -2715,10 +2715,10 @@
         <v>3.350851254480287</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>45046</v>
+        <v>44926</v>
       </c>
       <c r="Y27" t="n">
-        <v>1016.347939814815</v>
+        <v>1016.608758960573</v>
       </c>
       <c r="Z27" s="2" t="n">
         <v>44895</v>
@@ -2744,7 +2744,7 @@
         <v>41.8</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45504</v>
+        <v>44957</v>
       </c>
       <c r="G28" t="n">
         <v>2.2</v>
@@ -2756,10 +2756,10 @@
         <v>43</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44926</v>
+        <v>45688</v>
       </c>
       <c r="K28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>45626</v>
@@ -2780,10 +2780,10 @@
         <v>11.96</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="S28" t="n">
-        <v>70.5712962962963</v>
+        <v>70.59695924887018</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>45260</v>
@@ -2798,10 +2798,10 @@
         <v>3.236898148148148</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>44316</v>
+        <v>45046</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.215902777778</v>
+        <v>1016.347939814815</v>
       </c>
       <c r="Z28" s="2" t="n">
         <v>45382</v>
@@ -2827,7 +2827,7 @@
         <v>40.2</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44957</v>
+        <v>45077</v>
       </c>
       <c r="G29" t="n">
         <v>2.2</v>
@@ -2839,7 +2839,7 @@
         <v>42.8</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44530</v>
+        <v>44926</v>
       </c>
       <c r="K29" t="n">
         <v>7.1</v>
@@ -2863,10 +2863,10 @@
         <v>11.09333333333333</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>44834</v>
+        <v>44316</v>
       </c>
       <c r="S29" t="n">
-        <v>69.99583333333334</v>
+        <v>70.5712962962963</v>
       </c>
       <c r="T29" s="2" t="n">
         <v>44926</v>
@@ -2881,10 +2881,10 @@
         <v>3.14699074074074</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>45077</v>
+        <v>44316</v>
       </c>
       <c r="Y29" t="n">
-        <v>1016.158758960573</v>
+        <v>1016.215902777778</v>
       </c>
       <c r="Z29" s="2" t="n">
         <v>43861</v>
@@ -2904,13 +2904,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44316</v>
+        <v>45565</v>
       </c>
       <c r="E30" t="n">
         <v>38.6</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45046</v>
+        <v>44742</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2922,10 +2922,10 @@
         <v>37.4</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>45046</v>
+        <v>44530</v>
       </c>
       <c r="K30" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>45260</v>
@@ -2946,10 +2946,10 @@
         <v>10.93</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>45138</v>
+        <v>44834</v>
       </c>
       <c r="S30" t="n">
-        <v>68.96695615751</v>
+        <v>69.99583333333334</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>45046</v>
@@ -2964,10 +2964,10 @@
         <v>3.099915015540015</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>45260</v>
+        <v>45077</v>
       </c>
       <c r="Y30" t="n">
-        <v>1016.131666666667</v>
+        <v>1016.158758960573</v>
       </c>
       <c r="Z30" s="2" t="n">
         <v>44347</v>
@@ -2987,13 +2987,13 @@
         <v>25.9</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45565</v>
+        <v>45688</v>
       </c>
       <c r="E31" t="n">
         <v>38.6</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44742</v>
+        <v>45046</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3005,7 +3005,7 @@
         <v>36.6</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44895</v>
+        <v>45046</v>
       </c>
       <c r="K31" t="n">
         <v>6.9</v>
@@ -3029,10 +3029,10 @@
         <v>10.85666666666667</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>45443</v>
+        <v>45138</v>
       </c>
       <c r="S31" t="n">
-        <v>68.04189068100359</v>
+        <v>68.96695615751</v>
       </c>
       <c r="T31" s="2" t="n">
         <v>44530</v>
@@ -3047,10 +3047,10 @@
         <v>3.090509259259259</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="Y31" t="n">
-        <v>1015.850006588657</v>
+        <v>1016.131666666667</v>
       </c>
       <c r="Z31" s="2" t="n">
         <v>45169</v>
@@ -3070,7 +3070,7 @@
         <v>25.8</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44500</v>
+        <v>44651</v>
       </c>
       <c r="E32" t="n">
         <v>38.6</v>
@@ -3088,10 +3088,10 @@
         <v>36.4</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>45412</v>
+        <v>44895</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>44316</v>
@@ -3112,10 +3112,10 @@
         <v>10.55666666666667</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>44347</v>
+        <v>45443</v>
       </c>
       <c r="S32" t="n">
-        <v>67.98207885304659</v>
+        <v>68.04189068100359</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>45412</v>
@@ -3130,13 +3130,13 @@
         <v>2.921651785714286</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>45230</v>
+        <v>45138</v>
       </c>
       <c r="Y32" t="n">
-        <v>1015.839112903226</v>
+        <v>1015.850006588657</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="AA32" t="n">
         <v>60.5</v>
@@ -3153,13 +3153,13 @@
         <v>25.8</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44651</v>
+        <v>44316</v>
       </c>
       <c r="E33" t="n">
         <v>38.6</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45443</v>
+        <v>44926</v>
       </c>
       <c r="G33" t="n">
         <v>1.6</v>
@@ -3171,10 +3171,10 @@
         <v>31</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>45351</v>
+        <v>45412</v>
       </c>
       <c r="K33" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>45016</v>
@@ -3195,10 +3195,10 @@
         <v>10.21935483870968</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>45535</v>
+        <v>44347</v>
       </c>
       <c r="S33" t="n">
-        <v>67.95430107526882</v>
+        <v>67.98207885304659</v>
       </c>
       <c r="T33" s="2" t="n">
         <v>44651</v>
@@ -3213,13 +3213,13 @@
         <v>2.880219534050179</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>45596</v>
+        <v>45230</v>
       </c>
       <c r="Y33" t="n">
-        <v>1015.774081541219</v>
+        <v>1015.839112903226</v>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="AA33" t="n">
         <v>60.5</v>
@@ -3236,13 +3236,13 @@
         <v>25.4</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44985</v>
+        <v>44500</v>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>38.6</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44926</v>
+        <v>45443</v>
       </c>
       <c r="G34" t="n">
         <v>1.6</v>
@@ -3254,10 +3254,10 @@
         <v>27.2</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L34" s="2" t="n">
         <v>45382</v>
@@ -3278,10 +3278,10 @@
         <v>10.02258064516129</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>45107</v>
+        <v>45535</v>
       </c>
       <c r="S34" t="n">
-        <v>67.83657407407408</v>
+        <v>67.95430107526882</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>44316</v>
@@ -3296,10 +3296,10 @@
         <v>2.785931899641577</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>45169</v>
+        <v>45596</v>
       </c>
       <c r="Y34" t="n">
-        <v>1015.677160876758</v>
+        <v>1015.774081541219</v>
       </c>
       <c r="Z34" s="2" t="n">
         <v>43738</v>
@@ -3319,13 +3319,13 @@
         <v>25.3</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44804</v>
+        <v>44985</v>
       </c>
       <c r="E35" t="n">
         <v>37</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45016</v>
+        <v>44439</v>
       </c>
       <c r="G35" t="n">
         <v>1.4</v>
@@ -3337,10 +3337,10 @@
         <v>26.2</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="K35" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L35" s="2" t="n">
         <v>44926</v>
@@ -3361,16 +3361,16 @@
         <v>9.909677419354839</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>45046</v>
+        <v>45107</v>
       </c>
       <c r="S35" t="n">
-        <v>67.4375</v>
+        <v>67.83657407407408</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>45382</v>
+        <v>45688</v>
       </c>
       <c r="U35" t="n">
-        <v>9.152194366526414</v>
+        <v>9.15324074074074</v>
       </c>
       <c r="V35" s="2" t="n">
         <v>44985</v>
@@ -3379,10 +3379,10 @@
         <v>2.736631944444444</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>44439</v>
+        <v>45169</v>
       </c>
       <c r="Y35" t="n">
-        <v>1015.642338709677</v>
+        <v>1015.677160876758</v>
       </c>
       <c r="Z35" s="2" t="n">
         <v>41790</v>
@@ -3408,7 +3408,7 @@
         <v>37</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44439</v>
+        <v>45016</v>
       </c>
       <c r="G36" t="n">
         <v>1.4</v>
@@ -3420,10 +3420,10 @@
         <v>21.8</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>45291</v>
+        <v>44286</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="L36" s="2" t="n">
         <v>44530</v>
@@ -3432,10 +3432,10 @@
         <v>13.79548611111111</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>45351</v>
+        <v>45688</v>
       </c>
       <c r="O36" t="n">
-        <v>18.27241379310345</v>
+        <v>18.55833333333333</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>44316</v>
@@ -3444,16 +3444,16 @@
         <v>9.863333333333333</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>45473</v>
+        <v>45046</v>
       </c>
       <c r="S36" t="n">
-        <v>67.40254629629629</v>
+        <v>67.4375</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="U36" t="n">
-        <v>8.990887486364343</v>
+        <v>9.152194366526414</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>45535</v>
@@ -3462,10 +3462,10 @@
         <v>2.733064516129032</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>44742</v>
+        <v>44439</v>
       </c>
       <c r="Y36" t="n">
-        <v>1015.605347222222</v>
+        <v>1015.642338709677</v>
       </c>
       <c r="Z36" s="2" t="n">
         <v>43434</v>
@@ -3485,10 +3485,10 @@
         <v>24.3</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45107</v>
+        <v>44804</v>
       </c>
       <c r="E37" t="n">
-        <v>35.4</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>44681</v>
@@ -3509,34 +3509,34 @@
         <v>4.8</v>
       </c>
       <c r="L37" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="M37" t="n">
+        <v>13.39805720899471</v>
+      </c>
+      <c r="N37" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="M37" t="n">
-        <v>13.2003591954023</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>45291</v>
-      </c>
       <c r="O37" t="n">
-        <v>18.24193548387097</v>
+        <v>18.27241379310345</v>
       </c>
       <c r="P37" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>9.708333333333334</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="S37" t="n">
+        <v>67.40254629629629</v>
+      </c>
+      <c r="T37" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="Q37" t="n">
-        <v>9.280645161290321</v>
-      </c>
-      <c r="R37" s="2" t="n">
-        <v>45412</v>
-      </c>
-      <c r="S37" t="n">
-        <v>67.28811026936027</v>
-      </c>
-      <c r="T37" s="2" t="n">
-        <v>44561</v>
-      </c>
       <c r="U37" t="n">
-        <v>8.677598566308243</v>
+        <v>8.990887486364343</v>
       </c>
       <c r="V37" s="2" t="n">
         <v>45260</v>
@@ -3545,10 +3545,10 @@
         <v>2.717708333333333</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>44408</v>
+        <v>44742</v>
       </c>
       <c r="Y37" t="n">
-        <v>1015.316420250896</v>
+        <v>1015.605347222222</v>
       </c>
       <c r="Z37" s="2" t="n">
         <v>44196</v>
@@ -3568,7 +3568,7 @@
         <v>24.3</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44773</v>
+        <v>45107</v>
       </c>
       <c r="E38" t="n">
         <v>35.4</v>
@@ -3586,40 +3586,40 @@
         <v>21</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>44651</v>
+        <v>45291</v>
       </c>
       <c r="K38" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L38" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>13.2003591954023</v>
+      </c>
+      <c r="N38" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="M38" t="n">
-        <v>13.14372759856631</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>44286</v>
-      </c>
       <c r="O38" t="n">
-        <v>18.2258064516129</v>
+        <v>18.24193548387097</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>45291</v>
+        <v>45016</v>
       </c>
       <c r="Q38" t="n">
-        <v>8.932258064516128</v>
+        <v>9.280645161290321</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>45077</v>
+        <v>45412</v>
       </c>
       <c r="S38" t="n">
-        <v>66.55062724014337</v>
+        <v>67.28811026936027</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>45291</v>
+        <v>44561</v>
       </c>
       <c r="U38" t="n">
-        <v>8.611393495380886</v>
+        <v>8.677598566308243</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>44500</v>
@@ -3628,10 +3628,10 @@
         <v>2.716241039426523</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>45565</v>
+        <v>44408</v>
       </c>
       <c r="Y38" t="n">
-        <v>1015.283587962963</v>
+        <v>1015.316420250896</v>
       </c>
       <c r="Z38" s="2" t="n">
         <v>44651</v>
@@ -3657,7 +3657,7 @@
         <v>35.4</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45291</v>
+        <v>44408</v>
       </c>
       <c r="G39" t="n">
         <v>0.8</v>
@@ -3669,52 +3669,52 @@
         <v>19.8</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="K39" t="n">
         <v>4.7</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>44651</v>
+        <v>45291</v>
       </c>
       <c r="M39" t="n">
-        <v>13.13922101449275</v>
+        <v>13.14372759856631</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>45322</v>
+        <v>44286</v>
       </c>
       <c r="O39" t="n">
-        <v>18.00322580645161</v>
+        <v>18.2258064516129</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.755172413793103</v>
+        <v>8.932258064516128</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="S39" t="n">
-        <v>66.48135198135198</v>
+        <v>66.55062724014337</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>44681</v>
+        <v>45291</v>
       </c>
       <c r="U39" t="n">
-        <v>8.605863000550388</v>
+        <v>8.611393495380886</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>45322</v>
+        <v>45688</v>
       </c>
       <c r="W39" t="n">
-        <v>2.504214759255082</v>
+        <v>2.53015873015873</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>45504</v>
+        <v>45565</v>
       </c>
       <c r="Y39" t="n">
-        <v>1015.222043010753</v>
+        <v>1015.283587962963</v>
       </c>
       <c r="Z39" s="2" t="n">
         <v>45230</v>
@@ -3734,13 +3734,13 @@
         <v>22.6</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44377</v>
+        <v>44773</v>
       </c>
       <c r="E40" t="n">
-        <v>33.8</v>
+        <v>35.4</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44561</v>
+        <v>45291</v>
       </c>
       <c r="G40" t="n">
         <v>0.8</v>
@@ -3752,52 +3752,52 @@
         <v>14.6</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>45657</v>
+        <v>44620</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="M40" t="n">
-        <v>12.91453755649057</v>
+        <v>13.13922101449275</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>44620</v>
+        <v>45322</v>
       </c>
       <c r="O40" t="n">
-        <v>17.80714285714286</v>
+        <v>18.00322580645161</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>44561</v>
+        <v>45351</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.735483870967743</v>
+        <v>8.755172413793103</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>44377</v>
+        <v>45169</v>
       </c>
       <c r="S40" t="n">
-        <v>66.39768518518518</v>
+        <v>66.48135198135198</v>
       </c>
       <c r="T40" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="U40" t="n">
+        <v>8.605863000550388</v>
+      </c>
+      <c r="V40" s="2" t="n">
         <v>45322</v>
       </c>
-      <c r="U40" t="n">
-        <v>8.525690214803117</v>
-      </c>
-      <c r="V40" s="2" t="n">
-        <v>45291</v>
-      </c>
       <c r="W40" t="n">
-        <v>2.476680107526882</v>
+        <v>2.504214759255082</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="Y40" t="n">
-        <v>1014.981666666667</v>
+        <v>1015.222043010753</v>
       </c>
       <c r="Z40" s="2" t="n">
         <v>41943</v>
@@ -3817,7 +3817,7 @@
         <v>22.5</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45138</v>
+        <v>44834</v>
       </c>
       <c r="E41" t="n">
         <v>33.8</v>
@@ -3841,46 +3841,46 @@
         <v>4.1</v>
       </c>
       <c r="L41" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="M41" t="n">
+        <v>12.91453755649057</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="O41" t="n">
+        <v>17.80714285714286</v>
+      </c>
+      <c r="P41" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="M41" t="n">
-        <v>12.69417562724014</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>44255</v>
-      </c>
-      <c r="O41" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="P41" s="2" t="n">
+      <c r="Q41" t="n">
+        <v>8.735483870967743</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="S41" t="n">
+        <v>66.39768518518518</v>
+      </c>
+      <c r="T41" s="2" t="n">
         <v>45322</v>
       </c>
-      <c r="Q41" t="n">
-        <v>8.480645161290322</v>
-      </c>
-      <c r="R41" s="2" t="n">
-        <v>44681</v>
-      </c>
-      <c r="S41" t="n">
-        <v>66.22800925925927</v>
-      </c>
-      <c r="T41" s="2" t="n">
-        <v>45351</v>
-      </c>
       <c r="U41" t="n">
-        <v>8.384841954022988</v>
+        <v>8.525690214803117</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>44592</v>
+        <v>45291</v>
       </c>
       <c r="W41" t="n">
-        <v>2.26875</v>
+        <v>2.476680107526882</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>45107</v>
+        <v>45473</v>
       </c>
       <c r="Y41" t="n">
-        <v>1014.944884259259</v>
+        <v>1014.981666666667</v>
       </c>
       <c r="Z41" s="2" t="n">
         <v>41759</v>
@@ -3894,19 +3894,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44620</v>
+        <v>44957</v>
       </c>
       <c r="C42" t="n">
         <v>22.3</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44834</v>
+        <v>44377</v>
       </c>
       <c r="E42" t="n">
         <v>33.8</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44408</v>
+        <v>44316</v>
       </c>
       <c r="G42" t="n">
         <v>0.8</v>
@@ -3918,55 +3918,55 @@
         <v>11.2</v>
       </c>
       <c r="J42" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="M42" t="n">
+        <v>12.69417562724014</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="O42" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>8.480645161290322</v>
+      </c>
+      <c r="R42" s="2" t="n">
         <v>44681</v>
       </c>
-      <c r="K42" t="n">
-        <v>4</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>44255</v>
-      </c>
-      <c r="M42" t="n">
-        <v>12.62649637681159</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>45657</v>
-      </c>
-      <c r="O42" t="n">
-        <v>17.37096774193548</v>
-      </c>
-      <c r="P42" s="2" t="n">
-        <v>44286</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>8.216129032258063</v>
-      </c>
-      <c r="R42" s="2" t="n">
-        <v>44439</v>
-      </c>
       <c r="S42" t="n">
-        <v>64.93548387096774</v>
+        <v>66.22800925925927</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>44255</v>
+        <v>45351</v>
       </c>
       <c r="U42" t="n">
-        <v>8.125084541062801</v>
+        <v>8.384841954022988</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>45657</v>
+        <v>44592</v>
       </c>
       <c r="W42" t="n">
-        <v>2.24152688172043</v>
+        <v>2.26875</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>45443</v>
+        <v>45107</v>
       </c>
       <c r="Y42" t="n">
-        <v>1014.814045698925</v>
+        <v>1014.944884259259</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>43343</v>
+        <v>42794</v>
       </c>
       <c r="AA42" t="n">
         <v>48.5</v>
@@ -3977,7 +3977,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44957</v>
+        <v>44620</v>
       </c>
       <c r="C43" t="n">
         <v>22.3</v>
@@ -3989,7 +3989,7 @@
         <v>33.8</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44316</v>
+        <v>44561</v>
       </c>
       <c r="G43" t="n">
         <v>0.8</v>
@@ -4001,55 +4001,55 @@
         <v>9</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>44561</v>
+        <v>44681</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>45322</v>
+        <v>44255</v>
       </c>
       <c r="M43" t="n">
-        <v>12.60752813494749</v>
+        <v>12.62649637681159</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>44530</v>
+        <v>45657</v>
       </c>
       <c r="O43" t="n">
-        <v>17.25666666666667</v>
+        <v>17.37096774193548</v>
       </c>
       <c r="P43" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>8.216129032258063</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="S43" t="n">
+        <v>64.93548387096774</v>
+      </c>
+      <c r="T43" s="2" t="n">
         <v>44255</v>
       </c>
-      <c r="Q43" t="n">
-        <v>8.078260869565218</v>
-      </c>
-      <c r="R43" s="2" t="n">
-        <v>44742</v>
-      </c>
-      <c r="S43" t="n">
-        <v>63.5099537037037</v>
-      </c>
-      <c r="T43" s="2" t="n">
+      <c r="U43" t="n">
+        <v>8.125084541062801</v>
+      </c>
+      <c r="V43" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="U43" t="n">
-        <v>8.016087813620072</v>
-      </c>
-      <c r="V43" s="2" t="n">
-        <v>45565</v>
-      </c>
       <c r="W43" t="n">
-        <v>2.126157407407407</v>
+        <v>2.223118279569892</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>45535</v>
+        <v>45443</v>
       </c>
       <c r="Y43" t="n">
-        <v>1014.522199820789</v>
+        <v>1014.814045698925</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>42794</v>
+        <v>43343</v>
       </c>
       <c r="AA43" t="n">
         <v>48.5</v>
@@ -4066,10 +4066,10 @@
         <v>22.1</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44439</v>
+        <v>45138</v>
       </c>
       <c r="E44" t="n">
-        <v>32.2</v>
+        <v>33.8</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>44255</v>
@@ -4084,52 +4084,52 @@
         <v>5.8</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>44316</v>
+        <v>44561</v>
       </c>
       <c r="K44" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L44" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="M44" t="n">
+        <v>12.60752813494749</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="O44" t="n">
+        <v>17.25666666666667</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>8.078260869565218</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="S44" t="n">
+        <v>63.5099537037037</v>
+      </c>
+      <c r="T44" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="M44" t="n">
-        <v>12.00064964157706</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>44561</v>
-      </c>
-      <c r="O44" t="n">
-        <v>17.13870967741935</v>
-      </c>
-      <c r="P44" s="2" t="n">
-        <v>45657</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>7.674193548387097</v>
-      </c>
-      <c r="R44" s="2" t="n">
-        <v>45504</v>
-      </c>
-      <c r="S44" t="n">
-        <v>63.47244623655914</v>
-      </c>
-      <c r="T44" s="2" t="n">
-        <v>44286</v>
-      </c>
       <c r="U44" t="n">
-        <v>7.223220546984573</v>
+        <v>8.015098566308245</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>44926</v>
+        <v>45565</v>
       </c>
       <c r="W44" t="n">
-        <v>2.090008960573476</v>
+        <v>2.126157407407407</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>44804</v>
+        <v>45535</v>
       </c>
       <c r="Y44" t="n">
-        <v>1014.432347670251</v>
+        <v>1014.522199820789</v>
       </c>
       <c r="Z44" s="2" t="n">
         <v>44104</v>
@@ -4167,52 +4167,52 @@
         <v>5.4</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>44592</v>
+        <v>44316</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>44620</v>
+        <v>45657</v>
       </c>
       <c r="M45" t="n">
-        <v>11.8946275540358</v>
+        <v>11.99838709677419</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="O45" t="n">
-        <v>16.85161290322581</v>
+        <v>17.13870967741935</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>44620</v>
+        <v>45657</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.05</v>
+        <v>7.674193548387097</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>44712</v>
+        <v>45504</v>
       </c>
       <c r="S45" t="n">
-        <v>62.51052867383513</v>
+        <v>63.47244623655914</v>
       </c>
       <c r="T45" s="2" t="n">
-        <v>44620</v>
+        <v>44286</v>
       </c>
       <c r="U45" t="n">
-        <v>6.689550088652482</v>
+        <v>7.223220546984573</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>44865</v>
+        <v>44926</v>
       </c>
       <c r="W45" t="n">
-        <v>2.033736559139785</v>
+        <v>2.090008960573476</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>44530</v>
+        <v>44804</v>
       </c>
       <c r="Y45" t="n">
-        <v>1014.206319444444</v>
+        <v>1014.432347670251</v>
       </c>
       <c r="Z45" s="2" t="n">
         <v>42704</v>
@@ -4226,13 +4226,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="C46" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45077</v>
+        <v>44439</v>
       </c>
       <c r="E46" t="n">
         <v>32.2</v>
@@ -4250,52 +4250,52 @@
         <v>0.8</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>45016</v>
+        <v>44592</v>
       </c>
       <c r="K46" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>44957</v>
+        <v>44620</v>
       </c>
       <c r="M46" t="n">
-        <v>10.74743384427667</v>
+        <v>11.8946275540358</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>44985</v>
+        <v>44651</v>
       </c>
       <c r="O46" t="n">
-        <v>16.125</v>
+        <v>16.85161290322581</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>44957</v>
+        <v>44620</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.658064516129032</v>
+        <v>7.05</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>44408</v>
+        <v>44712</v>
       </c>
       <c r="S46" t="n">
-        <v>62.47737455197132</v>
+        <v>62.51052867383513</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>44957</v>
+        <v>44620</v>
       </c>
       <c r="U46" t="n">
-        <v>6.217835039059882</v>
+        <v>6.689550088652482</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>45230</v>
+        <v>44865</v>
       </c>
       <c r="W46" t="n">
-        <v>1.842114695340502</v>
+        <v>2.033736559139785</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>44834</v>
+        <v>44530</v>
       </c>
       <c r="Y46" t="n">
-        <v>1013.958032407407</v>
+        <v>1014.206319444444</v>
       </c>
       <c r="Z46" s="2" t="n">
         <v>44469</v>
@@ -4309,76 +4309,76 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44592</v>
+        <v>45657</v>
       </c>
       <c r="C47" t="n">
-        <v>20.6</v>
+        <v>21.7</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44742</v>
+        <v>45077</v>
       </c>
       <c r="E47" t="n">
-        <v>30.6</v>
+        <v>32.2</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44773</v>
+        <v>45688</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>44773</v>
+        <v>45138</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L47" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="K47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L47" s="2" t="n">
+      <c r="M47" t="n">
+        <v>10.74743384427667</v>
+      </c>
+      <c r="N47" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="M47" t="n">
-        <v>10.18152281746032</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>44592</v>
-      </c>
       <c r="O47" t="n">
-        <v>15.89032258064516</v>
+        <v>16.125</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="Q47" t="n">
-        <v>5.528571428571429</v>
+        <v>6.658064516129032</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>44804</v>
+        <v>44408</v>
       </c>
       <c r="S47" t="n">
-        <v>62.07146057347671</v>
+        <v>62.47737455197132</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="U47" t="n">
-        <v>5.810762911354141</v>
+        <v>6.217835039059882</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>45626</v>
+        <v>45230</v>
       </c>
       <c r="W47" t="n">
-        <v>1.644375</v>
+        <v>1.842114695340502</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>44681</v>
+        <v>44834</v>
       </c>
       <c r="Y47" t="n">
-        <v>1013.840208333333</v>
+        <v>1013.958032407407</v>
       </c>
       <c r="Z47" s="2" t="n">
         <v>44500</v>
@@ -4392,16 +4392,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44651</v>
+        <v>44592</v>
       </c>
       <c r="C48" t="n">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44865</v>
+        <v>44742</v>
       </c>
       <c r="E48" t="n">
-        <v>29</v>
+        <v>30.6</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>45138</v>
@@ -4410,58 +4410,58 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45138</v>
+        <v>44773</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L48" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="K48" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L48" s="2" t="n">
+      <c r="M48" t="n">
+        <v>10.18152281746032</v>
+      </c>
+      <c r="N48" s="2" t="n">
         <v>44592</v>
       </c>
-      <c r="M48" t="n">
-        <v>9.85714605734767</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>44957</v>
-      </c>
       <c r="O48" t="n">
-        <v>15.80967741935484</v>
+        <v>15.89032258064516</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>44592</v>
+        <v>44985</v>
       </c>
       <c r="Q48" t="n">
-        <v>5.496774193548387</v>
+        <v>5.528571428571429</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="S48" t="n">
-        <v>58.48588709677419</v>
+        <v>62.07146057347671</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>44592</v>
+        <v>44985</v>
       </c>
       <c r="U48" t="n">
-        <v>5.561420493911496</v>
+        <v>5.810762911354141</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>45199</v>
+        <v>45626</v>
       </c>
       <c r="W48" t="n">
-        <v>1.628263888888889</v>
+        <v>1.644375</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>45382</v>
+        <v>44681</v>
       </c>
       <c r="Y48" t="n">
-        <v>1012.66617286115</v>
+        <v>1013.840208333333</v>
       </c>
       <c r="Z48" s="2" t="n">
         <v>44286</v>
@@ -4475,53 +4475,77 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>44651</v>
+      </c>
+      <c r="C49" t="n">
+        <v>19.9</v>
+      </c>
       <c r="D49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>44865</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29</v>
+      </c>
       <c r="F49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>44773</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="H49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>45688</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.9</v>
+      </c>
       <c r="L49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>44592</v>
+      </c>
+      <c r="M49" t="n">
+        <v>9.85714605734767</v>
+      </c>
       <c r="N49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
+        <v>44957</v>
+      </c>
+      <c r="O49" t="n">
+        <v>15.80967741935484</v>
+      </c>
       <c r="P49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+        <v>44592</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5.496774193548387</v>
+      </c>
       <c r="R49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="S49" t="inlineStr"/>
+        <v>44773</v>
+      </c>
+      <c r="S49" t="n">
+        <v>58.48588709677419</v>
+      </c>
       <c r="T49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="U49" t="inlineStr"/>
+        <v>44592</v>
+      </c>
+      <c r="U49" t="n">
+        <v>5.561420493911496</v>
+      </c>
       <c r="V49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="W49" t="inlineStr"/>
+        <v>45199</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.628263888888889</v>
+      </c>
       <c r="X49" s="2" t="n">
-        <v>41670</v>
-      </c>
-      <c r="Y49" t="inlineStr"/>
+        <v>45382</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1012.66617286115</v>
+      </c>
       <c r="Z49" s="2" t="n">
         <v>42124</v>
       </c>
@@ -4534,51 +4558,51 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" s="2" t="n">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" s="2" t="n">
@@ -4593,51 +4617,51 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" s="2" t="n">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" s="2" t="n">
@@ -4652,51 +4676,51 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" s="2" t="n">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" s="2" t="n">
@@ -4711,51 +4735,51 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" s="2" t="n">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" s="2" t="n">
@@ -4770,51 +4794,51 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="U54" t="inlineStr"/>
       <c r="V54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" s="2" t="n">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" s="2" t="n">
@@ -4829,51 +4853,51 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" s="2" t="n">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" s="2" t="n">
@@ -4888,51 +4912,51 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" s="2" t="n">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" s="2" t="n">
@@ -4947,51 +4971,51 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" s="2" t="n">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" s="2" t="n">
@@ -5006,51 +5030,51 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" s="2" t="n">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" s="2" t="n">
@@ -5065,51 +5089,51 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" s="2" t="n">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" s="2" t="n">
@@ -5124,51 +5148,51 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="U60" t="inlineStr"/>
       <c r="V60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" s="2" t="n">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" s="2" t="n">
@@ -5183,55 +5207,55 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" s="2" t="n">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" s="2" t="n">
-        <v>44834</v>
+        <v>42490</v>
       </c>
       <c r="AA61" t="n">
         <v>36</v>
@@ -5242,55 +5266,55 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" s="2" t="n">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" s="2" t="n">
-        <v>42490</v>
+        <v>44834</v>
       </c>
       <c r="AA62" t="n">
         <v>36</v>
@@ -5301,51 +5325,51 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="U63" t="inlineStr"/>
       <c r="V63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" s="2" t="n">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" s="2" t="n">
@@ -5360,51 +5384,51 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" s="2" t="n">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" s="2" t="n">
@@ -5419,51 +5443,51 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="U65" t="inlineStr"/>
       <c r="V65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" s="2" t="n">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" s="2" t="n">
@@ -5478,51 +5502,51 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" s="2" t="n">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" s="2" t="n">
@@ -5537,51 +5561,51 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" s="2" t="n">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" s="2" t="n">
@@ -5596,51 +5620,51 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" s="2" t="n">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" s="2" t="n">
@@ -5655,51 +5679,51 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" s="2" t="n">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" s="2" t="n">
@@ -5714,51 +5738,51 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="U70" t="inlineStr"/>
       <c r="V70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" s="2" t="n">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" s="2" t="n">
@@ -5773,51 +5797,51 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" s="2" t="n">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" s="2" t="n">
@@ -5832,51 +5856,51 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="U72" t="inlineStr"/>
       <c r="V72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" s="2" t="n">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" s="2" t="n">
@@ -5891,51 +5915,51 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="U73" t="inlineStr"/>
       <c r="V73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" s="2" t="n">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" s="2" t="n">
@@ -5950,51 +5974,51 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="U74" t="inlineStr"/>
       <c r="V74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" s="2" t="n">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" s="2" t="n">
@@ -6009,51 +6033,51 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" s="2" t="n">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" s="2" t="n">
@@ -6068,51 +6092,51 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" s="2" t="n">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" s="2" t="n">
@@ -6127,51 +6151,51 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="U77" t="inlineStr"/>
       <c r="V77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" s="2" t="n">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" s="2" t="n">
@@ -6186,51 +6210,51 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="U78" t="inlineStr"/>
       <c r="V78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" s="2" t="n">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" s="2" t="n">
@@ -6245,51 +6269,51 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" s="2" t="n">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" s="2" t="n">
@@ -6304,58 +6328,58 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" s="2" t="n">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" s="2" t="n">
         <v>45657</v>
       </c>
       <c r="AA80" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="81">
@@ -6363,51 +6387,51 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="U81" t="inlineStr"/>
       <c r="V81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" s="2" t="n">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" s="2" t="n">
@@ -6422,51 +6446,51 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="U82" t="inlineStr"/>
       <c r="V82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" s="2" t="n">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" s="2" t="n">
@@ -6481,51 +6505,51 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="U83" t="inlineStr"/>
       <c r="V83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" s="2" t="n">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" s="2" t="n">
@@ -6540,51 +6564,51 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" s="2" t="n">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" s="2" t="n">
@@ -6599,51 +6623,51 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="U85" t="inlineStr"/>
       <c r="V85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" s="2" t="n">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" s="2" t="n">
@@ -6658,51 +6682,51 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" s="2" t="n">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" s="2" t="n">
@@ -6717,51 +6741,51 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" s="2" t="n">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" s="2" t="n">
@@ -6776,51 +6800,51 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" s="2" t="n">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" s="2" t="n">
@@ -6835,55 +6859,55 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="U89" t="inlineStr"/>
       <c r="V89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" s="2" t="n">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" s="2" t="n">
-        <v>43616</v>
+        <v>43069</v>
       </c>
       <c r="AA89" t="n">
         <v>14.8</v>
@@ -6894,55 +6918,55 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" s="2" t="n">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" s="2" t="n">
-        <v>43069</v>
+        <v>43616</v>
       </c>
       <c r="AA90" t="n">
         <v>14.8</v>
@@ -6953,55 +6977,55 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="U91" t="inlineStr"/>
       <c r="V91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" s="2" t="n">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" s="2" t="n">
-        <v>44377</v>
+        <v>45260</v>
       </c>
       <c r="AA91" t="n">
         <v>14.6</v>
@@ -7012,55 +7036,55 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="U92" t="inlineStr"/>
       <c r="V92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" s="2" t="n">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" s="2" t="n">
-        <v>45260</v>
+        <v>44377</v>
       </c>
       <c r="AA92" t="n">
         <v>14.6</v>
@@ -7071,51 +7095,51 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="U93" t="inlineStr"/>
       <c r="V93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" s="2" t="n">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" s="2" t="n">
@@ -7130,55 +7154,55 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" s="2" t="n">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" s="2" t="n">
-        <v>45046</v>
+        <v>43555</v>
       </c>
       <c r="AA94" t="n">
         <v>12.6</v>
@@ -7189,55 +7213,55 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="U95" t="inlineStr"/>
       <c r="V95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" s="2" t="n">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" s="2" t="n">
-        <v>43555</v>
+        <v>45046</v>
       </c>
       <c r="AA95" t="n">
         <v>12.6</v>
@@ -7248,51 +7272,51 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="W96" t="inlineStr"/>
       <c r="X96" s="2" t="n">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" s="2" t="n">
@@ -7307,51 +7331,51 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="U97" t="inlineStr"/>
       <c r="V97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="W97" t="inlineStr"/>
       <c r="X97" s="2" t="n">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" s="2" t="n">
@@ -7366,51 +7390,51 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="U98" t="inlineStr"/>
       <c r="V98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="W98" t="inlineStr"/>
       <c r="X98" s="2" t="n">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" s="2" t="n">
@@ -7425,51 +7449,51 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="U99" t="inlineStr"/>
       <c r="V99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" s="2" t="n">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" s="2" t="n">
@@ -7484,51 +7508,51 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="U100" t="inlineStr"/>
       <c r="V100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" s="2" t="n">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" s="2" t="n">
@@ -7543,51 +7567,51 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="U101" t="inlineStr"/>
       <c r="V101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" s="2" t="n">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" s="2" t="n">
@@ -7602,51 +7626,51 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="S102" t="inlineStr"/>
       <c r="T102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="U102" t="inlineStr"/>
       <c r="V102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="W102" t="inlineStr"/>
       <c r="X102" s="2" t="n">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" s="2" t="n">
@@ -7661,51 +7685,51 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="U103" t="inlineStr"/>
       <c r="V103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="W103" t="inlineStr"/>
       <c r="X103" s="2" t="n">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" s="2" t="n">
@@ -7720,51 +7744,51 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="U104" t="inlineStr"/>
       <c r="V104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="W104" t="inlineStr"/>
       <c r="X104" s="2" t="n">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" s="2" t="n">
@@ -7779,51 +7803,51 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="U105" t="inlineStr"/>
       <c r="V105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="W105" t="inlineStr"/>
       <c r="X105" s="2" t="n">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" s="2" t="n">
@@ -7838,51 +7862,51 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="U106" t="inlineStr"/>
       <c r="V106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="W106" t="inlineStr"/>
       <c r="X106" s="2" t="n">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" s="2" t="n">
@@ -7897,51 +7921,51 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="U107" t="inlineStr"/>
       <c r="V107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="W107" t="inlineStr"/>
       <c r="X107" s="2" t="n">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" s="2" t="n">
@@ -7956,51 +7980,51 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="U108" t="inlineStr"/>
       <c r="V108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="W108" t="inlineStr"/>
       <c r="X108" s="2" t="n">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" s="2" t="n">
@@ -8015,51 +8039,51 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="U109" t="inlineStr"/>
       <c r="V109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="W109" t="inlineStr"/>
       <c r="X109" s="2" t="n">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" s="2" t="n">
@@ -8074,55 +8098,55 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="U110" t="inlineStr"/>
       <c r="V110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="W110" t="inlineStr"/>
       <c r="X110" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" s="2" t="n">
-        <v>41729</v>
+        <v>42460</v>
       </c>
       <c r="AA110" t="n">
         <v>6</v>
@@ -8133,55 +8157,55 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="U111" t="inlineStr"/>
       <c r="V111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="W111" t="inlineStr"/>
       <c r="X111" s="2" t="n">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" s="2" t="n">
-        <v>42460</v>
+        <v>41729</v>
       </c>
       <c r="AA111" t="n">
         <v>6</v>
@@ -8192,51 +8216,51 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="U112" t="inlineStr"/>
       <c r="V112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="W112" t="inlineStr"/>
       <c r="X112" s="2" t="n">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" s="2" t="n">
@@ -8251,51 +8275,51 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="U113" t="inlineStr"/>
       <c r="V113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="W113" t="inlineStr"/>
       <c r="X113" s="2" t="n">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" s="2" t="n">
@@ -8310,51 +8334,51 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="U114" t="inlineStr"/>
       <c r="V114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" s="2" t="n">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" s="2" t="n">
@@ -8369,51 +8393,51 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="U115" t="inlineStr"/>
       <c r="V115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="W115" t="inlineStr"/>
       <c r="X115" s="2" t="n">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" s="2" t="n">
@@ -8428,51 +8452,51 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="U116" t="inlineStr"/>
       <c r="V116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="W116" t="inlineStr"/>
       <c r="X116" s="2" t="n">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" s="2" t="n">
@@ -8487,51 +8511,51 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="U117" t="inlineStr"/>
       <c r="V117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="W117" t="inlineStr"/>
       <c r="X117" s="2" t="n">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" s="2" t="n">
@@ -8546,51 +8570,51 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="U118" t="inlineStr"/>
       <c r="V118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="W118" t="inlineStr"/>
       <c r="X118" s="2" t="n">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" s="2" t="n">
@@ -8605,51 +8629,51 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="S119" t="inlineStr"/>
       <c r="T119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="U119" t="inlineStr"/>
       <c r="V119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="W119" t="inlineStr"/>
       <c r="X119" s="2" t="n">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" s="2" t="n">
@@ -8664,51 +8688,51 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="S120" t="inlineStr"/>
       <c r="T120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="U120" t="inlineStr"/>
       <c r="V120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="W120" t="inlineStr"/>
       <c r="X120" s="2" t="n">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" s="2" t="n">
@@ -8723,58 +8747,58 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="W121" t="inlineStr"/>
       <c r="X121" s="2" t="n">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" s="2" t="n">
-        <v>44620</v>
+        <v>45688</v>
       </c>
       <c r="AA121" t="n">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -8782,58 +8806,58 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="S122" t="inlineStr"/>
       <c r="T122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="U122" t="inlineStr"/>
       <c r="V122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="W122" t="inlineStr"/>
       <c r="X122" s="2" t="n">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" s="2" t="n">
-        <v>44773</v>
+        <v>44620</v>
       </c>
       <c r="AA122" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="123">
@@ -8841,58 +8865,58 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="U123" t="inlineStr"/>
       <c r="V123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="W123" t="inlineStr"/>
       <c r="X123" s="2" t="n">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" s="2" t="n">
-        <v>42613</v>
+        <v>44773</v>
       </c>
       <c r="AA123" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="124">
@@ -8900,55 +8924,55 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="U124" t="inlineStr"/>
       <c r="V124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="W124" t="inlineStr"/>
       <c r="X124" s="2" t="n">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" s="2" t="n">
-        <v>42369</v>
+        <v>45138</v>
       </c>
       <c r="AA124" t="n">
         <v>0</v>
@@ -8959,55 +8983,55 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="U125" t="inlineStr"/>
       <c r="V125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="W125" t="inlineStr"/>
       <c r="X125" s="2" t="n">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" s="2" t="n">
-        <v>42216</v>
+        <v>43890</v>
       </c>
       <c r="AA125" t="n">
         <v>0</v>
@@ -9018,55 +9042,55 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="U126" t="inlineStr"/>
       <c r="V126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="W126" t="inlineStr"/>
       <c r="X126" s="2" t="n">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" s="2" t="n">
-        <v>43312</v>
+        <v>43646</v>
       </c>
       <c r="AA126" t="n">
         <v>0</v>
@@ -9077,55 +9101,55 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="U127" t="inlineStr"/>
       <c r="V127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="W127" t="inlineStr"/>
       <c r="X127" s="2" t="n">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" s="2" t="n">
-        <v>41912</v>
+        <v>43312</v>
       </c>
       <c r="AA127" t="n">
         <v>0</v>
@@ -9136,55 +9160,55 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="U128" t="inlineStr"/>
       <c r="V128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="W128" t="inlineStr"/>
       <c r="X128" s="2" t="n">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" s="2" t="n">
-        <v>45138</v>
+        <v>42613</v>
       </c>
       <c r="AA128" t="n">
         <v>0</v>
@@ -9195,55 +9219,55 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="U129" t="inlineStr"/>
       <c r="V129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="W129" t="inlineStr"/>
       <c r="X129" s="2" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" s="2" t="n">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="AA129" t="n">
         <v>0</v>
@@ -9254,55 +9278,55 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="U130" t="inlineStr"/>
       <c r="V130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="W130" t="inlineStr"/>
       <c r="X130" s="2" t="n">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" s="2" t="n">
-        <v>43646</v>
+        <v>42551</v>
       </c>
       <c r="AA130" t="n">
         <v>0</v>
@@ -9313,55 +9337,55 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="U131" t="inlineStr"/>
       <c r="V131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="W131" t="inlineStr"/>
       <c r="X131" s="2" t="n">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" s="2" t="n">
-        <v>43890</v>
+        <v>42369</v>
       </c>
       <c r="AA131" t="n">
         <v>0</v>
@@ -9372,55 +9396,55 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="W132" t="inlineStr"/>
       <c r="X132" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" s="2" t="n">
-        <v>42582</v>
+        <v>42216</v>
       </c>
       <c r="AA132" t="n">
         <v>0</v>
@@ -9431,57 +9455,116 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="U133" t="inlineStr"/>
       <c r="V133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" s="2" t="n">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" s="2" t="n">
         <v>43677</v>
       </c>
-      <c r="AA133" t="n">
+      <c r="AA134" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/monthly_ranking.xlsx
+++ b/data/monthly_ranking.xlsx
@@ -847,7 +847,7 @@
         <v>209.4</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>44439</v>
+        <v>45535</v>
       </c>
       <c r="K5" t="n">
         <v>18.7</v>
@@ -930,7 +930,7 @@
         <v>202.2</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45535</v>
+        <v>44439</v>
       </c>
       <c r="K6" t="n">
         <v>18.7</v>
@@ -1221,10 +1221,10 @@
         <v>3.844938405797101</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>45626</v>
+        <v>45688</v>
       </c>
       <c r="Y9" t="n">
-        <v>1021.420162037037</v>
+        <v>1021.628958333333</v>
       </c>
       <c r="Z9" s="2" t="n">
         <v>43951</v>
@@ -1286,10 +1286,10 @@
         <v>20.45</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>45688</v>
+        <v>45230</v>
       </c>
       <c r="S10" t="n">
-        <v>76.40575396825398</v>
+        <v>76.22692652329749</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>44834</v>
@@ -1304,10 +1304,10 @@
         <v>3.803242364033038</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>44957</v>
+        <v>45626</v>
       </c>
       <c r="Y10" t="n">
-        <v>1021.385952264581</v>
+        <v>1021.420162037037</v>
       </c>
       <c r="Z10" s="2" t="n">
         <v>42766</v>
@@ -1369,10 +1369,10 @@
         <v>20.37333333333333</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>45230</v>
+        <v>45596</v>
       </c>
       <c r="S11" t="n">
-        <v>76.22692652329749</v>
+        <v>75.9043458781362</v>
       </c>
       <c r="T11" s="2" t="n">
         <v>45199</v>
@@ -1387,10 +1387,10 @@
         <v>3.757615740740741</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>44865</v>
+        <v>44957</v>
       </c>
       <c r="Y11" t="n">
-        <v>1020.975627240143</v>
+        <v>1021.385952264581</v>
       </c>
       <c r="Z11" s="2" t="n">
         <v>43190</v>
@@ -1452,10 +1452,10 @@
         <v>19.92333333333334</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>45596</v>
+        <v>44500</v>
       </c>
       <c r="S12" t="n">
-        <v>75.9043458781362</v>
+        <v>75.82773297491039</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>44408</v>
@@ -1470,10 +1470,10 @@
         <v>3.73974537037037</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>44255</v>
+        <v>44865</v>
       </c>
       <c r="Y12" t="n">
-        <v>1020.899411835749</v>
+        <v>1020.975627240143</v>
       </c>
       <c r="Z12" s="2" t="n">
         <v>42004</v>
@@ -1535,10 +1535,10 @@
         <v>19.21666666666667</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>44500</v>
+        <v>44985</v>
       </c>
       <c r="S13" t="n">
-        <v>75.82773297491039</v>
+        <v>75.80257936507937</v>
       </c>
       <c r="T13" s="2" t="n">
         <v>45107</v>
@@ -1553,10 +1553,10 @@
         <v>3.710949074074074</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>45688</v>
+        <v>44255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1020.062541335979</v>
+        <v>1020.899411835749</v>
       </c>
       <c r="Z13" s="2" t="n">
         <v>45322</v>
@@ -1618,10 +1618,10 @@
         <v>19.19</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>44985</v>
+        <v>44865</v>
       </c>
       <c r="S14" t="n">
-        <v>75.80257936507937</v>
+        <v>75.55398745519715</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>44742</v>
@@ -1659,7 +1659,7 @@
         <v>35.3</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45230</v>
+        <v>44926</v>
       </c>
       <c r="E15" t="n">
         <v>48.3</v>
@@ -1701,10 +1701,10 @@
         <v>18.89</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>44865</v>
+        <v>44255</v>
       </c>
       <c r="S15" t="n">
-        <v>75.55398745519715</v>
+        <v>75.43990338164251</v>
       </c>
       <c r="T15" s="2" t="n">
         <v>44377</v>
@@ -1742,7 +1742,7 @@
         <v>35.2</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44926</v>
+        <v>45230</v>
       </c>
       <c r="E16" t="n">
         <v>48.3</v>
@@ -1784,10 +1784,10 @@
         <v>18.18333333333333</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>44255</v>
+        <v>44592</v>
       </c>
       <c r="S16" t="n">
-        <v>75.43990338164251</v>
+        <v>75.33467741935483</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>45565</v>
@@ -1867,10 +1867,10 @@
         <v>17.82666666666666</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>44592</v>
+        <v>45291</v>
       </c>
       <c r="S17" t="n">
-        <v>75.33467741935483</v>
+        <v>75.18077956989247</v>
       </c>
       <c r="T17" s="2" t="n">
         <v>45230</v>
@@ -1950,10 +1950,10 @@
         <v>17.03870967741936</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>45291</v>
+        <v>45688</v>
       </c>
       <c r="S18" t="n">
-        <v>75.18077956989247</v>
+        <v>74.9341714559387</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>44865</v>
@@ -1997,7 +1997,7 @@
         <v>46.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45107</v>
+        <v>45412</v>
       </c>
       <c r="G19" t="n">
         <v>3.2</v>
@@ -2080,7 +2080,7 @@
         <v>45.1</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="G20" t="n">
         <v>3.2</v>
@@ -2163,7 +2163,7 @@
         <v>43.5</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45382</v>
+        <v>45107</v>
       </c>
       <c r="G21" t="n">
         <v>3.2</v>
@@ -2246,7 +2246,7 @@
         <v>43.5</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45657</v>
+        <v>45322</v>
       </c>
       <c r="G22" t="n">
         <v>2.6</v>
@@ -2329,7 +2329,7 @@
         <v>43.5</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="G23" t="n">
         <v>2.6</v>
@@ -2756,10 +2756,10 @@
         <v>43</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>45688</v>
+        <v>44530</v>
       </c>
       <c r="K28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>45626</v>
@@ -2904,13 +2904,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45565</v>
+        <v>45688</v>
       </c>
       <c r="E30" t="n">
-        <v>38.6</v>
+        <v>40.2</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44742</v>
+        <v>45046</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2922,10 +2922,10 @@
         <v>37.4</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="K30" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>45260</v>
@@ -2987,13 +2987,13 @@
         <v>25.9</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45688</v>
+        <v>44651</v>
       </c>
       <c r="E31" t="n">
         <v>38.6</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45046</v>
+        <v>44742</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3070,13 +3070,13 @@
         <v>25.8</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44651</v>
+        <v>44316</v>
       </c>
       <c r="E32" t="n">
         <v>38.6</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45351</v>
+        <v>45443</v>
       </c>
       <c r="G32" t="n">
         <v>1.6</v>
@@ -3088,10 +3088,10 @@
         <v>36.4</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44895</v>
+        <v>45412</v>
       </c>
       <c r="K32" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>44316</v>
@@ -3153,7 +3153,7 @@
         <v>25.8</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44316</v>
+        <v>45565</v>
       </c>
       <c r="E33" t="n">
         <v>38.6</v>
@@ -3171,10 +3171,10 @@
         <v>31</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>45016</v>
@@ -3242,7 +3242,7 @@
         <v>38.6</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45443</v>
+        <v>45351</v>
       </c>
       <c r="G34" t="n">
         <v>1.6</v>
@@ -3254,10 +3254,10 @@
         <v>27.2</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="K34" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L34" s="2" t="n">
         <v>45382</v>
@@ -3290,10 +3290,10 @@
         <v>9.172221794871795</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>45596</v>
+        <v>45688</v>
       </c>
       <c r="W34" t="n">
-        <v>2.785931899641577</v>
+        <v>2.859694683908046</v>
       </c>
       <c r="X34" s="2" t="n">
         <v>45596</v>
@@ -3325,7 +3325,7 @@
         <v>37</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44439</v>
+        <v>45688</v>
       </c>
       <c r="G35" t="n">
         <v>1.4</v>
@@ -3337,10 +3337,10 @@
         <v>26.2</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>45382</v>
+        <v>44286</v>
       </c>
       <c r="K35" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L35" s="2" t="n">
         <v>44926</v>
@@ -3367,16 +3367,16 @@
         <v>67.83657407407408</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>45688</v>
+        <v>45382</v>
       </c>
       <c r="U35" t="n">
-        <v>9.15324074074074</v>
+        <v>9.152194366526414</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>44985</v>
+        <v>45596</v>
       </c>
       <c r="W35" t="n">
-        <v>2.736631944444444</v>
+        <v>2.785931899641577</v>
       </c>
       <c r="X35" s="2" t="n">
         <v>45169</v>
@@ -3402,7 +3402,7 @@
         <v>24.3</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44592</v>
+        <v>44804</v>
       </c>
       <c r="E36" t="n">
         <v>37</v>
@@ -3420,10 +3420,10 @@
         <v>21.8</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>44286</v>
+        <v>45291</v>
       </c>
       <c r="K36" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L36" s="2" t="n">
         <v>44530</v>
@@ -3432,10 +3432,10 @@
         <v>13.79548611111111</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>45688</v>
+        <v>45351</v>
       </c>
       <c r="O36" t="n">
-        <v>18.55833333333333</v>
+        <v>18.27241379310345</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>44316</v>
@@ -3450,16 +3450,16 @@
         <v>67.4375</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>45382</v>
+        <v>45016</v>
       </c>
       <c r="U36" t="n">
-        <v>9.152194366526414</v>
+        <v>8.990887486364343</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>45535</v>
+        <v>44985</v>
       </c>
       <c r="W36" t="n">
-        <v>2.733064516129032</v>
+        <v>2.736631944444444</v>
       </c>
       <c r="X36" s="2" t="n">
         <v>44439</v>
@@ -3485,16 +3485,16 @@
         <v>24.3</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44804</v>
+        <v>44592</v>
       </c>
       <c r="E37" t="n">
         <v>37</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44681</v>
+        <v>44439</v>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>44255</v>
@@ -3509,22 +3509,22 @@
         <v>4.8</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>45688</v>
+        <v>45351</v>
       </c>
       <c r="M37" t="n">
-        <v>13.39805720899471</v>
+        <v>13.2003591954023</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="O37" t="n">
-        <v>18.27241379310345</v>
+        <v>18.24193548387097</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>45688</v>
+        <v>45016</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.708333333333334</v>
+        <v>9.280645161290321</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>45473</v>
@@ -3533,16 +3533,16 @@
         <v>67.40254629629629</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>45016</v>
+        <v>44561</v>
       </c>
       <c r="U37" t="n">
-        <v>8.990887486364343</v>
+        <v>8.677598566308243</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>45260</v>
+        <v>45535</v>
       </c>
       <c r="W37" t="n">
-        <v>2.717708333333333</v>
+        <v>2.733064516129032</v>
       </c>
       <c r="X37" s="2" t="n">
         <v>44742</v>
@@ -3586,28 +3586,28 @@
         <v>21</v>
       </c>
       <c r="J38" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L38" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="K38" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>45351</v>
-      </c>
       <c r="M38" t="n">
-        <v>13.2003591954023</v>
+        <v>13.14372759856631</v>
       </c>
       <c r="N38" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="O38" t="n">
+        <v>18.2258064516129</v>
+      </c>
+      <c r="P38" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="O38" t="n">
-        <v>18.24193548387097</v>
-      </c>
-      <c r="P38" s="2" t="n">
-        <v>45016</v>
-      </c>
       <c r="Q38" t="n">
-        <v>9.280645161290321</v>
+        <v>8.932258064516128</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>45412</v>
@@ -3616,16 +3616,16 @@
         <v>67.28811026936027</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>44561</v>
+        <v>45291</v>
       </c>
       <c r="U38" t="n">
-        <v>8.677598566308243</v>
+        <v>8.611393495380886</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>44500</v>
+        <v>45260</v>
       </c>
       <c r="W38" t="n">
-        <v>2.716241039426523</v>
+        <v>2.717708333333333</v>
       </c>
       <c r="X38" s="2" t="n">
         <v>44408</v>
@@ -3657,10 +3657,10 @@
         <v>35.4</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44408</v>
+        <v>44681</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>45016</v>
@@ -3669,28 +3669,28 @@
         <v>19.8</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="K39" t="n">
         <v>4.7</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>45291</v>
+        <v>44651</v>
       </c>
       <c r="M39" t="n">
-        <v>13.14372759856631</v>
+        <v>13.13922101449275</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>44286</v>
+        <v>45322</v>
       </c>
       <c r="O39" t="n">
-        <v>18.2258064516129</v>
+        <v>18.00322580645161</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>45291</v>
+        <v>45351</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.932258064516128</v>
+        <v>8.755172413793103</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>45077</v>
@@ -3699,16 +3699,16 @@
         <v>66.55062724014337</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>45291</v>
+        <v>44681</v>
       </c>
       <c r="U39" t="n">
-        <v>8.611393495380886</v>
+        <v>8.605863000550388</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>45688</v>
+        <v>44500</v>
       </c>
       <c r="W39" t="n">
-        <v>2.53015873015873</v>
+        <v>2.716241039426523</v>
       </c>
       <c r="X39" s="2" t="n">
         <v>45565</v>
@@ -3746,34 +3746,34 @@
         <v>0.8</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>44439</v>
+        <v>45688</v>
       </c>
       <c r="I40" t="n">
-        <v>14.6</v>
+        <v>16.6</v>
       </c>
       <c r="J40" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>12.91453755649057</v>
+      </c>
+      <c r="N40" s="2" t="n">
         <v>44620</v>
       </c>
-      <c r="K40" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>44651</v>
-      </c>
-      <c r="M40" t="n">
-        <v>13.13922101449275</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>45322</v>
-      </c>
       <c r="O40" t="n">
-        <v>18.00322580645161</v>
+        <v>17.80714285714286</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>45351</v>
+        <v>44561</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.755172413793103</v>
+        <v>8.735483870967743</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>45169</v>
@@ -3782,10 +3782,10 @@
         <v>66.48135198135198</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>44681</v>
+        <v>45322</v>
       </c>
       <c r="U40" t="n">
-        <v>8.605863000550388</v>
+        <v>8.525690214803117</v>
       </c>
       <c r="V40" s="2" t="n">
         <v>45322</v>
@@ -3829,34 +3829,34 @@
         <v>0.8</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>44681</v>
+        <v>44439</v>
       </c>
       <c r="I41" t="n">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="K41" t="n">
         <v>4.1</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>44286</v>
+        <v>44561</v>
       </c>
       <c r="M41" t="n">
-        <v>12.91453755649057</v>
+        <v>12.69417562724014</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>44620</v>
+        <v>44255</v>
       </c>
       <c r="O41" t="n">
-        <v>17.80714285714286</v>
+        <v>17.6</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>44561</v>
+        <v>45322</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.735483870967743</v>
+        <v>8.480645161290322</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>44377</v>
@@ -3865,10 +3865,10 @@
         <v>66.39768518518518</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="U41" t="n">
-        <v>8.525690214803117</v>
+        <v>8.384841954022988</v>
       </c>
       <c r="V41" s="2" t="n">
         <v>45291</v>
@@ -3906,40 +3906,40 @@
         <v>33.8</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44316</v>
+        <v>44561</v>
       </c>
       <c r="G42" t="n">
         <v>0.8</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>44592</v>
+        <v>44681</v>
       </c>
       <c r="I42" t="n">
-        <v>11.2</v>
+        <v>13.2</v>
       </c>
       <c r="J42" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="M42" t="n">
+        <v>12.62649637681159</v>
+      </c>
+      <c r="N42" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="K42" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>44561</v>
-      </c>
-      <c r="M42" t="n">
-        <v>12.69417562724014</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>44255</v>
-      </c>
       <c r="O42" t="n">
-        <v>17.6</v>
+        <v>17.37096774193548</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>45322</v>
+        <v>44286</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.480645161290322</v>
+        <v>8.216129032258063</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>44681</v>
@@ -3948,10 +3948,10 @@
         <v>66.22800925925927</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>45351</v>
+        <v>44255</v>
       </c>
       <c r="U42" t="n">
-        <v>8.384841954022988</v>
+        <v>8.125084541062801</v>
       </c>
       <c r="V42" s="2" t="n">
         <v>44592</v>
@@ -3966,7 +3966,7 @@
         <v>1014.944884259259</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>42794</v>
+        <v>43343</v>
       </c>
       <c r="AA42" t="n">
         <v>48.5</v>
@@ -3989,40 +3989,40 @@
         <v>33.8</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44561</v>
+        <v>44408</v>
       </c>
       <c r="G43" t="n">
         <v>0.8</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>44316</v>
+        <v>44592</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
+        <v>11.2</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>44681</v>
+        <v>44561</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L43" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>12.60752813494749</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="O43" t="n">
+        <v>17.25666666666667</v>
+      </c>
+      <c r="P43" s="2" t="n">
         <v>44255</v>
       </c>
-      <c r="M43" t="n">
-        <v>12.62649637681159</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>45657</v>
-      </c>
-      <c r="O43" t="n">
-        <v>17.37096774193548</v>
-      </c>
-      <c r="P43" s="2" t="n">
-        <v>44286</v>
-      </c>
       <c r="Q43" t="n">
-        <v>8.216129032258063</v>
+        <v>8.078260869565218</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>44439</v>
@@ -4031,10 +4031,10 @@
         <v>64.93548387096774</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>44255</v>
+        <v>45657</v>
       </c>
       <c r="U43" t="n">
-        <v>8.125084541062801</v>
+        <v>8.015098566308245</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>45657</v>
@@ -4049,7 +4049,7 @@
         <v>1014.814045698925</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>43343</v>
+        <v>42794</v>
       </c>
       <c r="AA43" t="n">
         <v>48.5</v>
@@ -4072,40 +4072,40 @@
         <v>33.8</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="G44" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45291</v>
+        <v>44316</v>
       </c>
       <c r="I44" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="J44" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="M44" t="n">
+        <v>11.99838709677419</v>
+      </c>
+      <c r="N44" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="M44" t="n">
-        <v>12.60752813494749</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>44530</v>
-      </c>
       <c r="O44" t="n">
-        <v>17.25666666666667</v>
+        <v>17.13870967741935</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>44255</v>
+        <v>45688</v>
       </c>
       <c r="Q44" t="n">
-        <v>8.078260869565218</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>44742</v>
@@ -4114,10 +4114,10 @@
         <v>63.5099537037037</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="U44" t="n">
-        <v>8.015098566308245</v>
+        <v>7.394932950191571</v>
       </c>
       <c r="V44" s="2" t="n">
         <v>45565</v>
@@ -4155,16 +4155,16 @@
         <v>32.2</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44592</v>
+        <v>44255</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>44865</v>
+        <v>45291</v>
       </c>
       <c r="I45" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J45" s="2" t="n">
         <v>44316</v>
@@ -4173,16 +4173,16 @@
         <v>3.2</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>45657</v>
+        <v>44620</v>
       </c>
       <c r="M45" t="n">
-        <v>11.99838709677419</v>
+        <v>11.8946275540358</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="O45" t="n">
-        <v>17.13870967741935</v>
+        <v>16.85161290322581</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>45657</v>
@@ -4238,16 +4238,16 @@
         <v>32.2</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>44620</v>
+        <v>44865</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="J46" s="2" t="n">
         <v>44592</v>
@@ -4256,16 +4256,16 @@
         <v>3</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>44620</v>
+        <v>45688</v>
       </c>
       <c r="M46" t="n">
-        <v>11.8946275540358</v>
+        <v>11.88054956896552</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>44651</v>
+        <v>45688</v>
       </c>
       <c r="O46" t="n">
-        <v>16.85161290322581</v>
+        <v>16.56</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>44620</v>
@@ -4321,16 +4321,16 @@
         <v>32.2</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45688</v>
+        <v>44620</v>
       </c>
       <c r="G47" t="n">
         <v>0.2</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45138</v>
+        <v>44620</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J47" s="2" t="n">
         <v>45016</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>44773</v>
+        <v>45138</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45688</v>
+        <v>44773</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" s="2" t="n">
-        <v>43921</v>
+        <v>42490</v>
       </c>
       <c r="AA60" t="n">
         <v>36</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" s="2" t="n">
-        <v>42490</v>
+        <v>43921</v>
       </c>
       <c r="AA61" t="n">
         <v>36</v>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" s="2" t="n">
-        <v>44804</v>
+        <v>44165</v>
       </c>
       <c r="AA73" t="n">
         <v>29</v>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" s="2" t="n">
-        <v>44165</v>
+        <v>44804</v>
       </c>
       <c r="AA74" t="n">
         <v>29</v>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" s="2" t="n">
-        <v>44377</v>
+        <v>45688</v>
       </c>
       <c r="AA92" t="n">
         <v>14.6</v>
@@ -7143,10 +7143,10 @@
       </c>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" s="2" t="n">
-        <v>44043</v>
+        <v>44377</v>
       </c>
       <c r="AA93" t="n">
-        <v>13</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="94">
@@ -7202,10 +7202,10 @@
       </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" s="2" t="n">
-        <v>43555</v>
+        <v>44043</v>
       </c>
       <c r="AA94" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -7320,10 +7320,10 @@
       </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" s="2" t="n">
-        <v>41882</v>
+        <v>43555</v>
       </c>
       <c r="AA96" t="n">
-        <v>12</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="97">
@@ -7379,10 +7379,10 @@
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" s="2" t="n">
-        <v>43585</v>
+        <v>41882</v>
       </c>
       <c r="AA97" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -7438,10 +7438,10 @@
       </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" s="2" t="n">
-        <v>43708</v>
+        <v>43585</v>
       </c>
       <c r="AA98" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="99">
@@ -7497,10 +7497,10 @@
       </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" s="2" t="n">
-        <v>44439</v>
+        <v>43708</v>
       </c>
       <c r="AA99" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="100">
@@ -7556,10 +7556,10 @@
       </c>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" s="2" t="n">
-        <v>44592</v>
+        <v>44439</v>
       </c>
       <c r="AA100" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="101">
@@ -7615,10 +7615,10 @@
       </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" s="2" t="n">
-        <v>42429</v>
+        <v>44592</v>
       </c>
       <c r="AA101" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="102">
@@ -7674,10 +7674,10 @@
       </c>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" s="2" t="n">
-        <v>45443</v>
+        <v>42429</v>
       </c>
       <c r="AA102" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -7733,10 +7733,10 @@
       </c>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" s="2" t="n">
-        <v>42155</v>
+        <v>45443</v>
       </c>
       <c r="AA103" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="104">
@@ -7792,10 +7792,10 @@
       </c>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" s="2" t="n">
-        <v>42886</v>
+        <v>42155</v>
       </c>
       <c r="AA104" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -7851,10 +7851,10 @@
       </c>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" s="2" t="n">
-        <v>43524</v>
+        <v>42886</v>
       </c>
       <c r="AA105" t="n">
-        <v>7.300000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="106">
@@ -7910,10 +7910,10 @@
       </c>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" s="2" t="n">
-        <v>44742</v>
+        <v>43524</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.8</v>
+        <v>7.300000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7969,10 +7969,10 @@
       </c>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" s="2" t="n">
-        <v>44865</v>
+        <v>44742</v>
       </c>
       <c r="AA107" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="108">
@@ -8028,10 +8028,10 @@
       </c>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" s="2" t="n">
-        <v>44255</v>
+        <v>44865</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="109">
@@ -8087,10 +8087,10 @@
       </c>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" s="2" t="n">
-        <v>42400</v>
+        <v>44255</v>
       </c>
       <c r="AA109" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="110">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" s="2" t="n">
-        <v>42460</v>
+        <v>41729</v>
       </c>
       <c r="AA110" t="n">
         <v>6</v>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" s="2" t="n">
-        <v>41729</v>
+        <v>42400</v>
       </c>
       <c r="AA111" t="n">
         <v>6</v>
@@ -8264,10 +8264,10 @@
       </c>
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" s="2" t="n">
-        <v>45107</v>
+        <v>42460</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -8323,10 +8323,10 @@
       </c>
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" s="2" t="n">
-        <v>42978</v>
+        <v>45107</v>
       </c>
       <c r="AA113" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="114">
@@ -8382,10 +8382,10 @@
       </c>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" s="2" t="n">
-        <v>45016</v>
+        <v>42978</v>
       </c>
       <c r="AA114" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -8441,10 +8441,10 @@
       </c>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" s="2" t="n">
-        <v>45291</v>
+        <v>45016</v>
       </c>
       <c r="AA115" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="116">
@@ -8500,10 +8500,10 @@
       </c>
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" s="2" t="n">
-        <v>45504</v>
+        <v>45291</v>
       </c>
       <c r="AA116" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="117">
@@ -8559,10 +8559,10 @@
       </c>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" s="2" t="n">
-        <v>44408</v>
+        <v>45504</v>
       </c>
       <c r="AA117" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="118">
@@ -8618,10 +8618,10 @@
       </c>
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" s="2" t="n">
-        <v>42947</v>
+        <v>44408</v>
       </c>
       <c r="AA118" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="119">
@@ -8677,10 +8677,10 @@
       </c>
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" s="2" t="n">
-        <v>42855</v>
+        <v>42947</v>
       </c>
       <c r="AA119" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -8736,10 +8736,10 @@
       </c>
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" s="2" t="n">
-        <v>41851</v>
+        <v>42855</v>
       </c>
       <c r="AA120" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="121">
@@ -8795,10 +8795,10 @@
       </c>
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" s="2" t="n">
-        <v>45688</v>
+        <v>41851</v>
       </c>
       <c r="AA121" t="n">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" s="2" t="n">
-        <v>45138</v>
+        <v>41912</v>
       </c>
       <c r="AA124" t="n">
         <v>0</v>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" s="2" t="n">
-        <v>43890</v>
+        <v>42216</v>
       </c>
       <c r="AA125" t="n">
         <v>0</v>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" s="2" t="n">
-        <v>43646</v>
+        <v>42551</v>
       </c>
       <c r="AA126" t="n">
         <v>0</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" s="2" t="n">
-        <v>43312</v>
+        <v>43890</v>
       </c>
       <c r="AA127" t="n">
         <v>0</v>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" s="2" t="n">
-        <v>42613</v>
+        <v>42369</v>
       </c>
       <c r="AA128" t="n">
         <v>0</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" s="2" t="n">
-        <v>42582</v>
+        <v>43646</v>
       </c>
       <c r="AA129" t="n">
         <v>0</v>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" s="2" t="n">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="AA130" t="n">
         <v>0</v>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" s="2" t="n">
-        <v>42369</v>
+        <v>42613</v>
       </c>
       <c r="AA131" t="n">
         <v>0</v>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" s="2" t="n">
-        <v>42216</v>
+        <v>45138</v>
       </c>
       <c r="AA132" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" s="2" t="n">
-        <v>41912</v>
+        <v>43312</v>
       </c>
       <c r="AA133" t="n">
         <v>0</v>
